--- a/sofascore_team_data/Ligue_1_Team_Stats.xlsx
+++ b/sofascore_team_data/Ligue_1_Team_Stats.xlsx
@@ -1148,11 +1148,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RC Lens</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1163,19 +1163,19 @@
         <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I2" t="n">
-        <v>289</v>
+        <v>367</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
@@ -1184,319 +1184,319 @@
         <v>4</v>
       </c>
       <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>13</v>
+      </c>
+      <c r="N2" t="n">
+        <v>37</v>
+      </c>
+      <c r="O2" t="n">
+        <v>10</v>
+      </c>
+      <c r="P2" t="n">
+        <v>223</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>144</v>
+      </c>
+      <c r="R2" t="n">
+        <v>6</v>
+      </c>
+      <c r="S2" t="n">
+        <v>13</v>
+      </c>
+      <c r="T2" t="n">
+        <v>28</v>
+      </c>
+      <c r="U2" t="n">
+        <v>72</v>
+      </c>
+      <c r="V2" t="n">
+        <v>57</v>
+      </c>
+      <c r="W2" t="n">
+        <v>42</v>
+      </c>
+      <c r="X2" t="n">
+        <v>142</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>140</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>198</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>434</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>129</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>68.619047619048</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>15259</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>13950</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>91.42145618979001</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>6561</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>6217</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>94.75689681451</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>8698</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>7733</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>88.905495516211</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>745</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>487</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>65.369127516779</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>303</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>26.402640264026</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>316</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>144</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>44</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>280</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1733</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>845</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>48.759376803231</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1422</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>694</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>48.804500703235</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>311</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>151</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>48.553054662379</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>2327</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>18</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>213</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>23</v>
+      </c>
+      <c r="BV2" t="n">
         <v>0</v>
       </c>
-      <c r="M2" t="n">
-        <v>6</v>
-      </c>
-      <c r="N2" t="n">
-        <v>34</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P2" t="n">
-        <v>205</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>84</v>
-      </c>
-      <c r="R2" t="n">
-        <v>9</v>
-      </c>
-      <c r="S2" t="n">
-        <v>14</v>
-      </c>
-      <c r="T2" t="n">
-        <v>13</v>
-      </c>
-      <c r="U2" t="n">
-        <v>79</v>
-      </c>
-      <c r="V2" t="n">
-        <v>60</v>
-      </c>
-      <c r="W2" t="n">
-        <v>53</v>
-      </c>
-      <c r="X2" t="n">
-        <v>105</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>115</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>69</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>163</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>345</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>115</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>49.380952380952</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>9487</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>8017</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>84.505112258881</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>4588</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>4168</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>90.845684394071</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>4899</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>3849</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>78.567054500919</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>711</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>382</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>53.727144866385</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>418</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>114</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>27.272727272727</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>409</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>232</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>52</v>
-      </c>
-      <c r="BB2" t="n">
+      <c r="BW2" t="n">
         <v>1</v>
       </c>
-      <c r="BC2" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>5</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>455</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>2158</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1073</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>49.721964782206</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>1653</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>824</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>49.848759830611</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>505</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>249</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>49.306930693069</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>2570</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>41</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>294</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>42</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>4</v>
-      </c>
       <c r="BX2" t="n">
-        <v>6.9599358974359</v>
+        <v>7.0378548895899</v>
       </c>
       <c r="BY2" t="n">
-        <v>1655</v>
+        <v>1081</v>
       </c>
       <c r="BZ2" t="n">
-        <v>3633</v>
+        <v>2173</v>
       </c>
       <c r="CA2" t="n">
-        <v>4728</v>
+        <v>3224</v>
       </c>
       <c r="CB2" t="n">
-        <v>8361</v>
+        <v>5397</v>
       </c>
       <c r="CC2" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="CD2" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="CE2" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="CF2" t="n">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="CG2" t="n">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="CH2" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="CI2" t="n">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="CJ2" t="n">
-        <v>414</v>
+        <v>299</v>
       </c>
       <c r="CK2" t="n">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="CL2" t="n">
         <v>5</v>
       </c>
       <c r="CM2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="CN2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CO2" t="n">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="CP2" t="n">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="CQ2" t="n">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="CR2" t="n">
-        <v>965</v>
+        <v>935</v>
       </c>
       <c r="CS2" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="CT2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CU2" t="n">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="CV2" t="n">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="CW2" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="CX2" t="n">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="CY2" t="n">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="CZ2" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="DA2" t="n">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="DB2" t="n">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="DC2" t="n">
-        <v>2362</v>
+        <v>1606</v>
       </c>
       <c r="DD2" t="n">
-        <v>4747</v>
+        <v>3083</v>
       </c>
       <c r="DE2" t="n">
-        <v>5198</v>
+        <v>3702</v>
       </c>
       <c r="DF2" t="n">
-        <v>9945</v>
+        <v>6785</v>
       </c>
       <c r="DG2" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="DH2" t="n">
         <v>356</v>
       </c>
       <c r="DI2" t="n">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1121</v>
+        <v>1060</v>
       </c>
       <c r="DK2" t="n">
-        <v>257</v>
+        <v>183</v>
       </c>
       <c r="DL2" t="n">
-        <v>48191</v>
+        <v>48482</v>
       </c>
       <c r="DM2" t="n">
         <v>21</v>
@@ -1515,80 +1515,80 @@
         </is>
       </c>
       <c r="DQ2" t="n">
-        <v>1.76</v>
+        <v>2.29</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="DS2" t="n">
-        <v>13.76</v>
+        <v>17.48</v>
       </c>
       <c r="DT2" t="n">
-        <v>5</v>
+        <v>6.76</v>
       </c>
       <c r="DU2" t="n">
-        <v>5.48</v>
+        <v>6.14</v>
       </c>
       <c r="DV2" t="n">
-        <v>14</v>
+        <v>10.14</v>
       </c>
       <c r="DW2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="DZ2" t="n">
         <v>2</v>
       </c>
-      <c r="DX2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>2.52</v>
-      </c>
       <c r="EA2" t="n">
-        <v>0.24</v>
+        <v>0.62</v>
       </c>
       <c r="EB2" t="n">
         <v>0.14</v>
       </c>
       <c r="EC2" t="n">
-        <v>381.76</v>
+        <v>664.29</v>
       </c>
       <c r="ED2" t="n">
-        <v>19.48</v>
+        <v>15.05</v>
       </c>
       <c r="EE2" t="n">
-        <v>11.05</v>
+        <v>6.86</v>
       </c>
       <c r="EF2" t="n">
-        <v>21.67</v>
+        <v>13.33</v>
       </c>
       <c r="EG2" t="n">
-        <v>2.48</v>
+        <v>2.1</v>
       </c>
       <c r="EH2" t="n">
-        <v>51.1</v>
+        <v>40.24</v>
       </c>
       <c r="EI2" t="n">
-        <v>39.24</v>
+        <v>33.05</v>
       </c>
       <c r="EJ2" t="n">
-        <v>11.86</v>
+        <v>7.19</v>
       </c>
       <c r="EK2" t="n">
-        <v>122.38</v>
+        <v>110.81</v>
       </c>
       <c r="EL2" t="n">
-        <v>7.76</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>RC Lens</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1644</v>
+        <v>1648</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1596,22 +1596,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I3" t="n">
-        <v>345</v>
+        <v>289</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -1620,322 +1620,322 @@
         <v>4</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>205</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>84</v>
+      </c>
+      <c r="R3" t="n">
+        <v>9</v>
+      </c>
+      <c r="S3" t="n">
+        <v>14</v>
+      </c>
+      <c r="T3" t="n">
+        <v>13</v>
+      </c>
+      <c r="U3" t="n">
+        <v>79</v>
+      </c>
+      <c r="V3" t="n">
+        <v>60</v>
+      </c>
+      <c r="W3" t="n">
+        <v>53</v>
+      </c>
+      <c r="X3" t="n">
+        <v>105</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>115</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>69</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>163</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>345</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>115</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>49.380952380952</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>9487</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>8017</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>84.505112258881</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>4588</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>4168</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>90.845684394071</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>4899</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>3849</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>78.567054500919</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>711</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>382</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>53.727144866385</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>418</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>114</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>27.272727272727</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>409</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>232</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>52</v>
+      </c>
+      <c r="BB3" t="n">
         <v>1</v>
       </c>
-      <c r="M3" t="n">
-        <v>13</v>
-      </c>
-      <c r="N3" t="n">
-        <v>33</v>
-      </c>
-      <c r="O3" t="n">
-        <v>10</v>
-      </c>
-      <c r="P3" t="n">
-        <v>203</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>142</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="BC3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>455</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>2158</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>1073</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>49.721964782206</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>1653</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>824</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>49.848759830611</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>505</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>249</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>49.306930693069</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>2570</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>41</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>294</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>42</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>6.9599358974359</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>1655</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>3633</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>4728</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>8361</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>41</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>27</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>31</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>441</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>89</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>85</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>334</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>414</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>187</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>5</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>11</v>
+      </c>
+      <c r="CN3" t="n">
         <v>6</v>
       </c>
-      <c r="S3" t="n">
-        <v>12</v>
-      </c>
-      <c r="T3" t="n">
-        <v>25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>64</v>
-      </c>
-      <c r="V3" t="n">
-        <v>50</v>
-      </c>
-      <c r="W3" t="n">
-        <v>36</v>
-      </c>
-      <c r="X3" t="n">
-        <v>135</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>128</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>82</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>184</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>411</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>124</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>69.15000000000001</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>14711</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>13459</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>91.48936170212799</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>6233</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>5912</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>94.849991978181</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>8478</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>7547</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>89.018636470866</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>716</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>467</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>65.223463687151</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>294</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>77</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>26.190476190476</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>302</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>133</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>4</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>269</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>1639</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>790</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>48.200122025625</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>1346</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>648</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>48.1426448737</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>293</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>142</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>48.464163822526</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>2231</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>15</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>202</v>
-      </c>
-      <c r="BU3" t="n">
+      <c r="CO3" t="n">
+        <v>187</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>183</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>456</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>965</v>
+      </c>
+      <c r="CS3" t="n">
         <v>21</v>
       </c>
-      <c r="BV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>7.0129568106312</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>1022</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>2022</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>3054</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>5076</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>29</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>18</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>22</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>424</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>60</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>54</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>210</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>285</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>119</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>4</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>14</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>7</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>206</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>121</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>442</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>888</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>38</v>
-      </c>
       <c r="CT3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CU3" t="n">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="CV3" t="n">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="CW3" t="n">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="CX3" t="n">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="CY3" t="n">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="CZ3" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="DA3" t="n">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="DB3" t="n">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="DC3" t="n">
-        <v>1519</v>
+        <v>2362</v>
       </c>
       <c r="DD3" t="n">
-        <v>2882</v>
+        <v>4747</v>
       </c>
       <c r="DE3" t="n">
-        <v>3508</v>
+        <v>5198</v>
       </c>
       <c r="DF3" t="n">
-        <v>6390</v>
+        <v>9945</v>
       </c>
       <c r="DG3" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="DH3" t="n">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="DI3" t="n">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="DJ3" t="n">
-        <v>1005</v>
+        <v>1121</v>
       </c>
       <c r="DK3" t="n">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="DL3" t="n">
-        <v>48482</v>
+        <v>48191</v>
       </c>
       <c r="DM3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DN3" t="n">
         <v>0</v>
@@ -1951,70 +1951,70 @@
         </is>
       </c>
       <c r="DQ3" t="n">
-        <v>2.15</v>
+        <v>1.76</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="DS3" t="n">
-        <v>17.25</v>
+        <v>13.76</v>
       </c>
       <c r="DT3" t="n">
-        <v>6.75</v>
+        <v>5</v>
       </c>
       <c r="DU3" t="n">
-        <v>6.2</v>
+        <v>5.48</v>
       </c>
       <c r="DV3" t="n">
-        <v>10.1</v>
+        <v>14</v>
       </c>
       <c r="DW3" t="n">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.05</v>
+        <v>0.19</v>
       </c>
       <c r="DY3" t="n">
-        <v>3.2</v>
+        <v>3.76</v>
       </c>
       <c r="DZ3" t="n">
-        <v>1.8</v>
+        <v>2.52</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.45</v>
+        <v>0.24</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="EC3" t="n">
-        <v>672.95</v>
+        <v>381.76</v>
       </c>
       <c r="ED3" t="n">
-        <v>15.1</v>
+        <v>19.48</v>
       </c>
       <c r="EE3" t="n">
-        <v>6.65</v>
+        <v>11.05</v>
       </c>
       <c r="EF3" t="n">
-        <v>13.45</v>
+        <v>21.67</v>
       </c>
       <c r="EG3" t="n">
-        <v>2.05</v>
+        <v>2.48</v>
       </c>
       <c r="EH3" t="n">
-        <v>39.5</v>
+        <v>51.1</v>
       </c>
       <c r="EI3" t="n">
-        <v>32.4</v>
+        <v>39.24</v>
       </c>
       <c r="EJ3" t="n">
-        <v>7.1</v>
+        <v>11.86</v>
       </c>
       <c r="EK3" t="n">
-        <v>111.55</v>
+        <v>122.38</v>
       </c>
       <c r="EL3" t="n">
-        <v>9.199999999999999</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="4">
@@ -2242,7 +2242,7 @@
         <v>40</v>
       </c>
       <c r="BV4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BW4" t="n">
         <v>6</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
         <v>46</v>
       </c>
       <c r="F5" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>34</v>
       </c>
       <c r="I5" t="n">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
@@ -2504,10 +2504,10 @@
         <v>9</v>
       </c>
       <c r="P5" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q5" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="R5" t="n">
         <v>4</v>
@@ -2519,31 +2519,31 @@
         <v>31</v>
       </c>
       <c r="U5" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V5" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W5" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X5" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Y5" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Z5" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AB5" t="n">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="AC5" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AD5" t="n">
         <v>10</v>
@@ -2558,67 +2558,67 @@
         <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>59.1</v>
+        <v>58.285714285714</v>
       </c>
       <c r="AI5" t="n">
-        <v>11640</v>
+        <v>12035</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10415</v>
+        <v>10736</v>
       </c>
       <c r="AK5" t="n">
-        <v>89.475945017182</v>
+        <v>89.206481096801</v>
       </c>
       <c r="AL5" t="n">
-        <v>5512</v>
+        <v>5706</v>
       </c>
       <c r="AM5" t="n">
-        <v>5209</v>
+        <v>5379</v>
       </c>
       <c r="AN5" t="n">
-        <v>94.50290275762001</v>
+        <v>94.269190325973</v>
       </c>
       <c r="AO5" t="n">
-        <v>6128</v>
+        <v>6329</v>
       </c>
       <c r="AP5" t="n">
-        <v>5206</v>
+        <v>5357</v>
       </c>
       <c r="AQ5" t="n">
-        <v>84.954308093995</v>
+        <v>84.642123558224</v>
       </c>
       <c r="AR5" t="n">
-        <v>597</v>
+        <v>628</v>
       </c>
       <c r="AS5" t="n">
+        <v>338</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>53.821656050955</v>
+      </c>
+      <c r="AU5" t="n">
         <v>321</v>
       </c>
-      <c r="AT5" t="n">
-        <v>53.768844221106</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>317</v>
-      </c>
       <c r="AV5" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AW5" t="n">
-        <v>21.451104100946</v>
+        <v>21.495327102804</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
       </c>
       <c r="AY5" t="n">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="AZ5" t="n">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="BA5" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="BB5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC5" t="n">
         <v>11</v>
@@ -2630,52 +2630,52 @@
         <v>3</v>
       </c>
       <c r="BF5" t="n">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="BG5" t="n">
         <v>3</v>
       </c>
       <c r="BH5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI5" t="n">
-        <v>1607</v>
+        <v>1701</v>
       </c>
       <c r="BJ5" t="n">
-        <v>785</v>
+        <v>824</v>
       </c>
       <c r="BK5" t="n">
-        <v>48.848786558805</v>
+        <v>48.442092886537</v>
       </c>
       <c r="BL5" t="n">
-        <v>1236</v>
+        <v>1312</v>
       </c>
       <c r="BM5" t="n">
-        <v>602</v>
+        <v>632</v>
       </c>
       <c r="BN5" t="n">
-        <v>48.705501618123</v>
+        <v>48.170731707317</v>
       </c>
       <c r="BO5" t="n">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="BP5" t="n">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="BQ5" t="n">
-        <v>49.326145552561</v>
+        <v>49.357326478149</v>
       </c>
       <c r="BR5" t="n">
-        <v>2096</v>
+        <v>2207</v>
       </c>
       <c r="BS5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BT5" t="n">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="BU5" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="BV5" t="n">
         <v>1</v>
@@ -2684,130 +2684,130 @@
         <v>4</v>
       </c>
       <c r="BX5" t="n">
-        <v>6.9168831168831</v>
+        <v>6.8776397515528</v>
       </c>
       <c r="BY5" t="n">
-        <v>1174</v>
+        <v>1262</v>
       </c>
       <c r="BZ5" t="n">
-        <v>2647</v>
+        <v>2833</v>
       </c>
       <c r="CA5" t="n">
-        <v>3996</v>
+        <v>4301</v>
       </c>
       <c r="CB5" t="n">
-        <v>6643</v>
+        <v>7134</v>
       </c>
       <c r="CC5" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="CD5" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="CE5" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="CF5" t="n">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="CG5" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="CH5" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="CI5" t="n">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="CJ5" t="n">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="CK5" t="n">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="CL5" t="n">
         <v>6</v>
       </c>
       <c r="CM5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CN5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="CO5" t="n">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="CP5" t="n">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="CQ5" t="n">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="CR5" t="n">
-        <v>783</v>
+        <v>823</v>
       </c>
       <c r="CS5" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="CT5" t="n">
         <v>4</v>
       </c>
       <c r="CU5" t="n">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="CV5" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="CW5" t="n">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="CX5" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="CY5" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="CZ5" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="DA5" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="DB5" t="n">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="DC5" t="n">
-        <v>1704</v>
+        <v>1814</v>
       </c>
       <c r="DD5" t="n">
-        <v>3473</v>
+        <v>3693</v>
       </c>
       <c r="DE5" t="n">
-        <v>4386</v>
+        <v>4714</v>
       </c>
       <c r="DF5" t="n">
-        <v>7859</v>
+        <v>8407</v>
       </c>
       <c r="DG5" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="DH5" t="n">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="DI5" t="n">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="DJ5" t="n">
-        <v>920</v>
+        <v>959</v>
       </c>
       <c r="DK5" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="DL5" t="n">
         <v>48095</v>
       </c>
       <c r="DM5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DN5" t="n">
         <v>0</v>
@@ -2823,70 +2823,70 @@
         </is>
       </c>
       <c r="DQ5" t="n">
-        <v>2.3</v>
+        <v>2.19</v>
       </c>
       <c r="DR5" t="n">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="DS5" t="n">
-        <v>14.55</v>
+        <v>14.29</v>
       </c>
       <c r="DT5" t="n">
-        <v>5.85</v>
+        <v>5.71</v>
       </c>
       <c r="DU5" t="n">
-        <v>5.05</v>
+        <v>4.9</v>
       </c>
       <c r="DV5" t="n">
-        <v>12.35</v>
+        <v>12.62</v>
       </c>
       <c r="DW5" t="n">
         <v>2.05</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="DY5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="DZ5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="EC5" t="n">
-        <v>520.75</v>
+        <v>511.24</v>
       </c>
       <c r="ED5" t="n">
-        <v>13.85</v>
+        <v>13.86</v>
       </c>
       <c r="EE5" t="n">
-        <v>7.35</v>
+        <v>7.38</v>
       </c>
       <c r="EF5" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="EG5" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="EH5" t="n">
-        <v>39.25</v>
+        <v>39.24</v>
       </c>
       <c r="EI5" t="n">
         <v>30.1</v>
       </c>
       <c r="EJ5" t="n">
-        <v>9.15</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="EK5" t="n">
-        <v>104.8</v>
+        <v>105.1</v>
       </c>
       <c r="EL5" t="n">
-        <v>6.25</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="6">
@@ -3776,13 +3776,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -3791,7 +3791,7 @@
         <v>26</v>
       </c>
       <c r="I8" t="n">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
@@ -3809,13 +3809,13 @@
         <v>32</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q8" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="R8" t="n">
         <v>6</v>
@@ -3824,34 +3824,34 @@
         <v>6</v>
       </c>
       <c r="T8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U8" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V8" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W8" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X8" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y8" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z8" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AA8" t="n">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="AB8" t="n">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="AC8" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AD8" t="n">
         <v>3</v>
@@ -3866,70 +3866,70 @@
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>51.6</v>
+        <v>51.47619047619</v>
       </c>
       <c r="AI8" t="n">
-        <v>10273</v>
+        <v>10660</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9035</v>
+        <v>9366</v>
       </c>
       <c r="AK8" t="n">
-        <v>87.948992504624</v>
+        <v>87.861163227017</v>
       </c>
       <c r="AL8" t="n">
-        <v>6001</v>
+        <v>6207</v>
       </c>
       <c r="AM8" t="n">
-        <v>5671</v>
+        <v>5865</v>
       </c>
       <c r="AN8" t="n">
-        <v>94.50091651391401</v>
+        <v>94.490091831803</v>
       </c>
       <c r="AO8" t="n">
-        <v>4272</v>
+        <v>4453</v>
       </c>
       <c r="AP8" t="n">
-        <v>3364</v>
+        <v>3501</v>
       </c>
       <c r="AQ8" t="n">
-        <v>78.74531835206</v>
+        <v>78.621154278015</v>
       </c>
       <c r="AR8" t="n">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="AS8" t="n">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="AT8" t="n">
-        <v>52.731591448931</v>
+        <v>52.631578947368</v>
       </c>
       <c r="AU8" t="n">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="AV8" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AW8" t="n">
-        <v>26.39751552795</v>
+        <v>27.272727272727</v>
       </c>
       <c r="AX8" t="n">
         <v>7</v>
       </c>
       <c r="AY8" t="n">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="AZ8" t="n">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="BA8" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="BB8" t="n">
         <v>3</v>
       </c>
       <c r="BC8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BD8" t="n">
         <v>4</v>
@@ -3938,7 +3938,7 @@
         <v>3</v>
       </c>
       <c r="BF8" t="n">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="BG8" t="n">
         <v>0</v>
@@ -3947,64 +3947,64 @@
         <v>1</v>
       </c>
       <c r="BI8" t="n">
-        <v>1846</v>
+        <v>1945</v>
       </c>
       <c r="BJ8" t="n">
-        <v>950</v>
+        <v>998</v>
       </c>
       <c r="BK8" t="n">
-        <v>51.462621885157</v>
+        <v>51.311053984576</v>
       </c>
       <c r="BL8" t="n">
-        <v>1456</v>
+        <v>1545</v>
       </c>
       <c r="BM8" t="n">
-        <v>742</v>
+        <v>786</v>
       </c>
       <c r="BN8" t="n">
-        <v>50.961538461538</v>
+        <v>50.873786407767</v>
       </c>
       <c r="BO8" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="BP8" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="BQ8" t="n">
-        <v>53.333333333333</v>
+        <v>53</v>
       </c>
       <c r="BR8" t="n">
-        <v>2252</v>
+        <v>2376</v>
       </c>
       <c r="BS8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BT8" t="n">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="BU8" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BV8" t="n">
         <v>1</v>
       </c>
       <c r="BW8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BX8" t="n">
-        <v>6.826821192053</v>
+        <v>6.8136075949367</v>
       </c>
       <c r="BY8" t="n">
-        <v>1528</v>
+        <v>1616</v>
       </c>
       <c r="BZ8" t="n">
-        <v>3330</v>
+        <v>3510</v>
       </c>
       <c r="CA8" t="n">
-        <v>4819</v>
+        <v>4971</v>
       </c>
       <c r="CB8" t="n">
-        <v>8149</v>
+        <v>8481</v>
       </c>
       <c r="CC8" t="n">
         <v>42</v>
@@ -4016,106 +4016,106 @@
         <v>23</v>
       </c>
       <c r="CF8" t="n">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="CG8" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="CH8" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="CI8" t="n">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="CJ8" t="n">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="CK8" t="n">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="CL8" t="n">
         <v>5</v>
       </c>
       <c r="CM8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CN8" t="n">
         <v>4</v>
       </c>
       <c r="CO8" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="CP8" t="n">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="CQ8" t="n">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="CR8" t="n">
-        <v>977</v>
+        <v>1013</v>
       </c>
       <c r="CS8" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="CT8" t="n">
         <v>3</v>
       </c>
       <c r="CU8" t="n">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="CV8" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="CW8" t="n">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="CX8" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="CY8" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="CZ8" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="DA8" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="DB8" t="n">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="DC8" t="n">
-        <v>2065</v>
+        <v>2182</v>
       </c>
       <c r="DD8" t="n">
-        <v>4230</v>
+        <v>4449</v>
       </c>
       <c r="DE8" t="n">
-        <v>5275</v>
+        <v>5444</v>
       </c>
       <c r="DF8" t="n">
-        <v>9505</v>
+        <v>9893</v>
       </c>
       <c r="DG8" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="DH8" t="n">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="DI8" t="n">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="DJ8" t="n">
-        <v>976</v>
+        <v>1021</v>
       </c>
       <c r="DK8" t="n">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="DL8" t="n">
         <v>48422</v>
       </c>
       <c r="DM8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DN8" t="n">
         <v>0</v>
@@ -4131,70 +4131,70 @@
         </is>
       </c>
       <c r="DQ8" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="DR8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="DS8" t="n">
-        <v>11.2</v>
+        <v>11.14</v>
       </c>
       <c r="DT8" t="n">
-        <v>4.4</v>
+        <v>4.33</v>
       </c>
       <c r="DU8" t="n">
-        <v>3.85</v>
+        <v>3.81</v>
       </c>
       <c r="DV8" t="n">
-        <v>11.55</v>
+        <v>11.57</v>
       </c>
       <c r="DW8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="DY8" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="DZ8" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="EC8" t="n">
-        <v>451.75</v>
+        <v>446</v>
       </c>
       <c r="ED8" t="n">
-        <v>16.15</v>
+        <v>16.43</v>
       </c>
       <c r="EE8" t="n">
-        <v>7.5</v>
+        <v>7.48</v>
       </c>
       <c r="EF8" t="n">
-        <v>19.55</v>
+        <v>19.62</v>
       </c>
       <c r="EG8" t="n">
-        <v>2.7</v>
+        <v>2.81</v>
       </c>
       <c r="EH8" t="n">
-        <v>47.5</v>
+        <v>47.52</v>
       </c>
       <c r="EI8" t="n">
-        <v>37.1</v>
+        <v>37.43</v>
       </c>
       <c r="EJ8" t="n">
-        <v>10.4</v>
+        <v>10.1</v>
       </c>
       <c r="EK8" t="n">
-        <v>112.6</v>
+        <v>113.14</v>
       </c>
       <c r="EL8" t="n">
-        <v>8.65</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -4212,13 +4212,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
         <v>31</v>
       </c>
       <c r="F9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -4227,7 +4227,7 @@
         <v>18</v>
       </c>
       <c r="I9" t="n">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -4248,10 +4248,10 @@
         <v>4</v>
       </c>
       <c r="P9" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q9" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="R9" t="n">
         <v>4</v>
@@ -4263,109 +4263,109 @@
         <v>15</v>
       </c>
       <c r="U9" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X9" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Y9" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="Z9" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AA9" t="n">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="AB9" t="n">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="AC9" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="AD9" t="n">
         <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
         <v>1</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH9" t="n">
-        <v>41.2</v>
+        <v>41.571428571429</v>
       </c>
       <c r="AI9" t="n">
-        <v>7053</v>
+        <v>7499</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5684</v>
+        <v>6061</v>
       </c>
       <c r="AK9" t="n">
-        <v>80.58981993478</v>
+        <v>80.82410988131799</v>
       </c>
       <c r="AL9" t="n">
-        <v>3454</v>
+        <v>3662</v>
       </c>
       <c r="AM9" t="n">
-        <v>3133</v>
+        <v>3329</v>
       </c>
       <c r="AN9" t="n">
-        <v>90.706427330631</v>
+        <v>90.906608410705</v>
       </c>
       <c r="AO9" t="n">
-        <v>3599</v>
+        <v>3837</v>
       </c>
       <c r="AP9" t="n">
-        <v>2551</v>
+        <v>2732</v>
       </c>
       <c r="AQ9" t="n">
-        <v>70.88080022228399</v>
+        <v>71.201459473547</v>
       </c>
       <c r="AR9" t="n">
-        <v>572</v>
+        <v>606</v>
       </c>
       <c r="AS9" t="n">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="AT9" t="n">
-        <v>50</v>
+        <v>50.16501650165</v>
       </c>
       <c r="AU9" t="n">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="AV9" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AW9" t="n">
-        <v>25.320512820513</v>
+        <v>24.850299401198</v>
       </c>
       <c r="AX9" t="n">
         <v>8</v>
       </c>
       <c r="AY9" t="n">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="AZ9" t="n">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="BA9" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="BB9" t="n">
         <v>3</v>
       </c>
       <c r="BC9" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BD9" t="n">
         <v>4</v>
@@ -4374,7 +4374,7 @@
         <v>4</v>
       </c>
       <c r="BF9" t="n">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="BG9" t="n">
         <v>2</v>
@@ -4383,43 +4383,43 @@
         <v>2</v>
       </c>
       <c r="BI9" t="n">
-        <v>2036</v>
+        <v>2157</v>
       </c>
       <c r="BJ9" t="n">
-        <v>1024</v>
+        <v>1079</v>
       </c>
       <c r="BK9" t="n">
-        <v>50.294695481336</v>
+        <v>50.023180343069</v>
       </c>
       <c r="BL9" t="n">
-        <v>1426</v>
+        <v>1518</v>
       </c>
       <c r="BM9" t="n">
-        <v>697</v>
+        <v>738</v>
       </c>
       <c r="BN9" t="n">
-        <v>48.877980364656</v>
+        <v>48.616600790514</v>
       </c>
       <c r="BO9" t="n">
-        <v>610</v>
+        <v>639</v>
       </c>
       <c r="BP9" t="n">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="BQ9" t="n">
-        <v>53.606557377049</v>
+        <v>53.364632237872</v>
       </c>
       <c r="BR9" t="n">
-        <v>2398</v>
+        <v>2526</v>
       </c>
       <c r="BS9" t="n">
         <v>23</v>
       </c>
       <c r="BT9" t="n">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="BU9" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="BV9" t="n">
         <v>0</v>
@@ -4428,130 +4428,130 @@
         <v>2</v>
       </c>
       <c r="BX9" t="n">
-        <v>6.8278145695364</v>
+        <v>6.8157232704402</v>
       </c>
       <c r="BY9" t="n">
-        <v>1603</v>
+        <v>1647</v>
       </c>
       <c r="BZ9" t="n">
-        <v>3739</v>
+        <v>3845</v>
       </c>
       <c r="CA9" t="n">
-        <v>5258</v>
+        <v>5563</v>
       </c>
       <c r="CB9" t="n">
-        <v>8997</v>
+        <v>9408</v>
       </c>
       <c r="CC9" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="CD9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CE9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CF9" t="n">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="CG9" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="CH9" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="CI9" t="n">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="CJ9" t="n">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="CK9" t="n">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="CL9" t="n">
         <v>5</v>
       </c>
       <c r="CM9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CN9" t="n">
         <v>6</v>
       </c>
       <c r="CO9" t="n">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="CP9" t="n">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="CQ9" t="n">
-        <v>440</v>
+        <v>472</v>
       </c>
       <c r="CR9" t="n">
-        <v>995</v>
+        <v>1052</v>
       </c>
       <c r="CS9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CT9" t="n">
         <v>2</v>
       </c>
       <c r="CU9" t="n">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="CV9" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="CW9" t="n">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="CX9" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="CY9" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="CZ9" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="DA9" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="DB9" t="n">
+        <v>370</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>2268</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>4944</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>5989</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>10933</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>42</v>
+      </c>
+      <c r="DH9" t="n">
         <v>351</v>
       </c>
-      <c r="DC9" t="n">
-        <v>2206</v>
-      </c>
-      <c r="DD9" t="n">
-        <v>4799</v>
-      </c>
-      <c r="DE9" t="n">
-        <v>5661</v>
-      </c>
-      <c r="DF9" t="n">
-        <v>10460</v>
-      </c>
-      <c r="DG9" t="n">
-        <v>39</v>
-      </c>
-      <c r="DH9" t="n">
-        <v>329</v>
-      </c>
       <c r="DI9" t="n">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="DJ9" t="n">
-        <v>922</v>
+        <v>973</v>
       </c>
       <c r="DK9" t="n">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="DL9" t="n">
         <v>48310</v>
       </c>
       <c r="DM9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DN9" t="n">
         <v>0</v>
@@ -4567,80 +4567,80 @@
         </is>
       </c>
       <c r="DQ9" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="DR9" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="DS9" t="n">
-        <v>12.25</v>
+        <v>12.24</v>
       </c>
       <c r="DT9" t="n">
-        <v>4.15</v>
+        <v>4.19</v>
       </c>
       <c r="DU9" t="n">
-        <v>4.45</v>
+        <v>4.48</v>
       </c>
       <c r="DV9" t="n">
-        <v>14.3</v>
+        <v>14.38</v>
       </c>
       <c r="DW9" t="n">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="DX9" t="n">
         <v>0.1</v>
       </c>
       <c r="DY9" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="EB9" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="EC9" t="n">
-        <v>284.2</v>
+        <v>288.62</v>
       </c>
       <c r="ED9" t="n">
-        <v>15.6</v>
+        <v>15.86</v>
       </c>
       <c r="EE9" t="n">
-        <v>9.15</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="EF9" t="n">
-        <v>26.35</v>
+        <v>25.86</v>
       </c>
       <c r="EG9" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="EH9" t="n">
-        <v>51.2</v>
+        <v>51.38</v>
       </c>
       <c r="EI9" t="n">
-        <v>34.85</v>
+        <v>35.14</v>
       </c>
       <c r="EJ9" t="n">
-        <v>16.35</v>
+        <v>16.24</v>
       </c>
       <c r="EK9" t="n">
-        <v>119.9</v>
+        <v>120.29</v>
       </c>
       <c r="EL9" t="n">
-        <v>8.050000000000001</v>
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1656</v>
+        <v>1684</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -4651,211 +4651,211 @@
         <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>11</v>
+      </c>
+      <c r="I10" t="n">
+        <v>200</v>
+      </c>
+      <c r="J10" t="n">
         <v>2</v>
       </c>
-      <c r="H10" t="n">
-        <v>18</v>
-      </c>
-      <c r="I10" t="n">
-        <v>245</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>20</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
-        <v>4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>9</v>
-      </c>
-      <c r="N10" t="n">
-        <v>21</v>
-      </c>
-      <c r="O10" t="n">
-        <v>5</v>
-      </c>
       <c r="P10" t="n">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="Q10" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="R10" t="n">
         <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="U10" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="V10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="W10" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="X10" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="n">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="Z10" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AA10" t="n">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="AB10" t="n">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="AC10" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>43</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>8681</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>7207</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>83.020389356065</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>5002</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>4492</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>89.80407836865299</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>3679</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>2715</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>73.797227507475</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>595</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>286</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>48.067226890756</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>304</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>19.736842105263</v>
+      </c>
+      <c r="AX10" t="n">
         <v>8</v>
       </c>
-      <c r="AE10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>43.904761904762</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>8721</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>7343</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>84.19905974085501</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>4466</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>4036</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>90.37169726824899</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>4255</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>3307</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>77.720329024677</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>679</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>347</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>51.104565537555</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>332</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>20.180722891566</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>4</v>
-      </c>
       <c r="AY10" t="n">
-        <v>292</v>
+        <v>389</v>
       </c>
       <c r="AZ10" t="n">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="BA10" t="n">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="BB10" t="n">
         <v>3</v>
       </c>
       <c r="BC10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BE10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>500</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH10" t="n">
         <v>4</v>
       </c>
-      <c r="BF10" t="n">
-        <v>539</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>3</v>
-      </c>
       <c r="BI10" t="n">
-        <v>1897</v>
+        <v>1915</v>
       </c>
       <c r="BJ10" t="n">
-        <v>977</v>
+        <v>960</v>
       </c>
       <c r="BK10" t="n">
-        <v>51.502372166579</v>
+        <v>50.130548302872</v>
       </c>
       <c r="BL10" t="n">
-        <v>1356</v>
+        <v>1444</v>
       </c>
       <c r="BM10" t="n">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="BN10" t="n">
-        <v>53.318584070796</v>
+        <v>50.761772853186</v>
       </c>
       <c r="BO10" t="n">
-        <v>541</v>
+        <v>471</v>
       </c>
       <c r="BP10" t="n">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="BQ10" t="n">
-        <v>46.950092421442</v>
+        <v>48.195329087049</v>
       </c>
       <c r="BR10" t="n">
-        <v>2332</v>
+        <v>2567</v>
       </c>
       <c r="BS10" t="n">
         <v>35</v>
       </c>
       <c r="BT10" t="n">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="BU10" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="BV10" t="n">
         <v>0</v>
@@ -4864,127 +4864,127 @@
         <v>1</v>
       </c>
       <c r="BX10" t="n">
-        <v>6.7707165109034</v>
+        <v>6.7732087227414</v>
       </c>
       <c r="BY10" t="n">
-        <v>2407</v>
+        <v>2285</v>
       </c>
       <c r="BZ10" t="n">
-        <v>5330</v>
+        <v>4868</v>
       </c>
       <c r="CA10" t="n">
-        <v>4592</v>
+        <v>5399</v>
       </c>
       <c r="CB10" t="n">
-        <v>9922</v>
+        <v>10267</v>
       </c>
       <c r="CC10" t="n">
         <v>51</v>
       </c>
       <c r="CD10" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="CE10" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="CF10" t="n">
-        <v>410</v>
+        <v>369</v>
       </c>
       <c r="CG10" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="CH10" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="CI10" t="n">
-        <v>442</v>
+        <v>405</v>
       </c>
       <c r="CJ10" t="n">
-        <v>283</v>
+        <v>341</v>
       </c>
       <c r="CK10" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="CL10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="CM10" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="CN10" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="CO10" t="n">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="CP10" t="n">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="CQ10" t="n">
-        <v>468</v>
+        <v>513</v>
       </c>
       <c r="CR10" t="n">
-        <v>909</v>
+        <v>956</v>
       </c>
       <c r="CS10" t="n">
         <v>24</v>
       </c>
       <c r="CT10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CU10" t="n">
-        <v>222</v>
+        <v>296</v>
       </c>
       <c r="CV10" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="CW10" t="n">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="CX10" t="n">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="CY10" t="n">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="CZ10" t="n">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="DA10" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="DB10" t="n">
-        <v>314</v>
+        <v>369</v>
       </c>
       <c r="DC10" t="n">
-        <v>3106</v>
+        <v>3085</v>
       </c>
       <c r="DD10" t="n">
-        <v>6361</v>
+        <v>6069</v>
       </c>
       <c r="DE10" t="n">
-        <v>4915</v>
+        <v>5702</v>
       </c>
       <c r="DF10" t="n">
-        <v>11276</v>
+        <v>11771</v>
       </c>
       <c r="DG10" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="DH10" t="n">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="DI10" t="n">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="DJ10" t="n">
-        <v>912</v>
+        <v>1077</v>
       </c>
       <c r="DK10" t="n">
-        <v>286</v>
+        <v>228</v>
       </c>
       <c r="DL10" t="n">
-        <v>48426</v>
+        <v>48423</v>
       </c>
       <c r="DM10" t="n">
         <v>21</v>
@@ -5003,70 +5003,70 @@
         </is>
       </c>
       <c r="DQ10" t="n">
-        <v>1.29</v>
+        <v>1.05</v>
       </c>
       <c r="DR10" t="n">
-        <v>1.57</v>
+        <v>1.19</v>
       </c>
       <c r="DS10" t="n">
-        <v>11.67</v>
+        <v>9.52</v>
       </c>
       <c r="DT10" t="n">
-        <v>3.86</v>
+        <v>3.57</v>
       </c>
       <c r="DU10" t="n">
-        <v>3.24</v>
+        <v>3.71</v>
       </c>
       <c r="DV10" t="n">
-        <v>10.1</v>
+        <v>11.05</v>
       </c>
       <c r="DW10" t="n">
-        <v>1.81</v>
+        <v>1.43</v>
       </c>
       <c r="DX10" t="n">
         <v>0.05</v>
       </c>
       <c r="DY10" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="DZ10" t="n">
-        <v>1.24</v>
+        <v>1.05</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="EC10" t="n">
-        <v>349.67</v>
+        <v>343.19</v>
       </c>
       <c r="ED10" t="n">
-        <v>13.9</v>
+        <v>18.52</v>
       </c>
       <c r="EE10" t="n">
-        <v>9.1</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="EF10" t="n">
-        <v>25.67</v>
+        <v>23.81</v>
       </c>
       <c r="EG10" t="n">
-        <v>2.33</v>
+        <v>3.9</v>
       </c>
       <c r="EH10" t="n">
-        <v>46.52</v>
+        <v>45.71</v>
       </c>
       <c r="EI10" t="n">
-        <v>34.43</v>
+        <v>34.9</v>
       </c>
       <c r="EJ10" t="n">
-        <v>12.1</v>
+        <v>10.81</v>
       </c>
       <c r="EK10" t="n">
-        <v>111.05</v>
+        <v>122.24</v>
       </c>
       <c r="EL10" t="n">
-        <v>7.24</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="11">
@@ -5084,7 +5084,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
         <v>32</v>
@@ -5099,7 +5099,7 @@
         <v>23</v>
       </c>
       <c r="I11" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
@@ -5120,10 +5120,10 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Q11" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R11" t="n">
         <v>5</v>
@@ -5135,34 +5135,34 @@
         <v>14</v>
       </c>
       <c r="U11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V11" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W11" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X11" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Y11" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Z11" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AA11" t="n">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="AB11" t="n">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="AC11" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>20</v>
@@ -5174,70 +5174,70 @@
         <v>18</v>
       </c>
       <c r="AH11" t="n">
-        <v>53.3</v>
+        <v>53.428571428571</v>
       </c>
       <c r="AI11" t="n">
-        <v>9464</v>
+        <v>9897</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7959</v>
+        <v>8296</v>
       </c>
       <c r="AK11" t="n">
-        <v>84.097633136095</v>
+        <v>83.82338082247099</v>
       </c>
       <c r="AL11" t="n">
-        <v>4250</v>
+        <v>4449</v>
       </c>
       <c r="AM11" t="n">
-        <v>3862</v>
+        <v>4035</v>
       </c>
       <c r="AN11" t="n">
-        <v>90.87058823529399</v>
+        <v>90.694538098449</v>
       </c>
       <c r="AO11" t="n">
-        <v>5214</v>
+        <v>5448</v>
       </c>
       <c r="AP11" t="n">
-        <v>4097</v>
+        <v>4261</v>
       </c>
       <c r="AQ11" t="n">
-        <v>78.57690832374399</v>
+        <v>78.212187958884</v>
       </c>
       <c r="AR11" t="n">
-        <v>657</v>
+        <v>698</v>
       </c>
       <c r="AS11" t="n">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="AT11" t="n">
-        <v>50.837138508371</v>
+        <v>50.716332378223</v>
       </c>
       <c r="AU11" t="n">
+        <v>373</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>82</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>21.983914209115</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY11" t="n">
         <v>363</v>
       </c>
-      <c r="AV11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>22.038567493113</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>337</v>
-      </c>
       <c r="AZ11" t="n">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="BA11" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BB11" t="n">
         <v>4</v>
       </c>
       <c r="BC11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD11" t="n">
         <v>5</v>
@@ -5246,52 +5246,52 @@
         <v>4</v>
       </c>
       <c r="BF11" t="n">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="BG11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH11" t="n">
         <v>3</v>
       </c>
       <c r="BI11" t="n">
-        <v>1884</v>
+        <v>1990</v>
       </c>
       <c r="BJ11" t="n">
-        <v>918</v>
+        <v>979</v>
       </c>
       <c r="BK11" t="n">
-        <v>48.726114649682</v>
+        <v>49.195979899497</v>
       </c>
       <c r="BL11" t="n">
-        <v>1399</v>
+        <v>1474</v>
       </c>
       <c r="BM11" t="n">
-        <v>663</v>
+        <v>708</v>
       </c>
       <c r="BN11" t="n">
-        <v>47.390993566833</v>
+        <v>48.032564450475</v>
       </c>
       <c r="BO11" t="n">
-        <v>485</v>
+        <v>516</v>
       </c>
       <c r="BP11" t="n">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="BQ11" t="n">
-        <v>52.577319587629</v>
+        <v>52.519379844961</v>
       </c>
       <c r="BR11" t="n">
-        <v>2579</v>
+        <v>2720</v>
       </c>
       <c r="BS11" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BT11" t="n">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="BU11" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="BV11" t="n">
         <v>1</v>
@@ -5300,19 +5300,19 @@
         <v>5</v>
       </c>
       <c r="BX11" t="n">
-        <v>6.7752442996743</v>
+        <v>6.7791925465839</v>
       </c>
       <c r="BY11" t="n">
-        <v>1496</v>
+        <v>1570</v>
       </c>
       <c r="BZ11" t="n">
-        <v>3016</v>
+        <v>3147</v>
       </c>
       <c r="CA11" t="n">
-        <v>3758</v>
+        <v>3869</v>
       </c>
       <c r="CB11" t="n">
-        <v>6774</v>
+        <v>7016</v>
       </c>
       <c r="CC11" t="n">
         <v>41</v>
@@ -5324,22 +5324,22 @@
         <v>21</v>
       </c>
       <c r="CF11" t="n">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="CG11" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="CH11" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="CI11" t="n">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="CJ11" t="n">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="CK11" t="n">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="CL11" t="n">
         <v>4</v>
@@ -5351,79 +5351,79 @@
         <v>7</v>
       </c>
       <c r="CO11" t="n">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="CP11" t="n">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="CQ11" t="n">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="CR11" t="n">
-        <v>1012</v>
+        <v>1066</v>
       </c>
       <c r="CS11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CT11" t="n">
         <v>4</v>
       </c>
       <c r="CU11" t="n">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="CV11" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="CW11" t="n">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="CX11" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="CY11" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="CZ11" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="DA11" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="DB11" t="n">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="DC11" t="n">
-        <v>2101</v>
+        <v>2216</v>
       </c>
       <c r="DD11" t="n">
-        <v>4035</v>
+        <v>4233</v>
       </c>
       <c r="DE11" t="n">
-        <v>4302</v>
+        <v>4432</v>
       </c>
       <c r="DF11" t="n">
-        <v>8337</v>
+        <v>8665</v>
       </c>
       <c r="DG11" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="DH11" t="n">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="DI11" t="n">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="DJ11" t="n">
-        <v>1037</v>
+        <v>1082</v>
       </c>
       <c r="DK11" t="n">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="DL11" t="n">
         <v>48291</v>
       </c>
       <c r="DM11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DN11" t="n">
         <v>0</v>
@@ -5439,80 +5439,80 @@
         </is>
       </c>
       <c r="DQ11" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="DR11" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="DS11" t="n">
-        <v>12.5</v>
+        <v>12.38</v>
       </c>
       <c r="DT11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="DU11" t="n">
-        <v>4.7</v>
+        <v>4.76</v>
       </c>
       <c r="DV11" t="n">
-        <v>13.6</v>
+        <v>13.48</v>
       </c>
       <c r="DW11" t="n">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="DY11" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="DZ11" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="EC11" t="n">
-        <v>397.95</v>
+        <v>395.05</v>
       </c>
       <c r="ED11" t="n">
-        <v>16.85</v>
+        <v>17.29</v>
       </c>
       <c r="EE11" t="n">
-        <v>11.15</v>
+        <v>11.14</v>
       </c>
       <c r="EF11" t="n">
-        <v>20.2</v>
+        <v>20.52</v>
       </c>
       <c r="EG11" t="n">
-        <v>2.7</v>
+        <v>2.71</v>
       </c>
       <c r="EH11" t="n">
-        <v>45.9</v>
+        <v>46.62</v>
       </c>
       <c r="EI11" t="n">
-        <v>33.15</v>
+        <v>33.71</v>
       </c>
       <c r="EJ11" t="n">
-        <v>12.75</v>
+        <v>12.9</v>
       </c>
       <c r="EK11" t="n">
-        <v>128.95</v>
+        <v>129.52</v>
       </c>
       <c r="EL11" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1684</v>
+        <v>1656</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -5520,214 +5520,214 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" t="n">
+        <v>27</v>
+      </c>
+      <c r="F12" t="n">
+        <v>33</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>18</v>
+      </c>
+      <c r="I12" t="n">
+        <v>245</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>9</v>
+      </c>
+      <c r="N12" t="n">
         <v>21</v>
       </c>
-      <c r="F12" t="n">
-        <v>25</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-      <c r="I12" t="n">
-        <v>188</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>3</v>
-      </c>
-      <c r="N12" t="n">
-        <v>20</v>
-      </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P12" t="n">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="Q12" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="R12" t="n">
         <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T12" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="U12" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="V12" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="W12" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="X12" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="Y12" t="n">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="Z12" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AA12" t="n">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="AB12" t="n">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="AC12" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AD12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>43.904761904762</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>8721</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>7343</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>84.19905974085501</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>4466</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>4036</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>90.37169726824899</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>4255</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>3307</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>77.720329024677</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>679</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>347</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>51.104565537555</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>332</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>20.180722891566</v>
+      </c>
+      <c r="AX12" t="n">
         <v>4</v>
       </c>
-      <c r="AE12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>42.6</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>8208</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>6796</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>82.797270955166</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>4674</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>4187</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>89.580658964484</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>3534</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>2609</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>73.825693265422</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>557</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>262</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>47.037701974865</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>290</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>57</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>19.655172413793</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>7</v>
-      </c>
       <c r="AY12" t="n">
-        <v>370</v>
+        <v>292</v>
       </c>
       <c r="AZ12" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="BA12" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="BB12" t="n">
         <v>3</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE12" t="n">
         <v>4</v>
       </c>
-      <c r="BE12" t="n">
-        <v>1</v>
-      </c>
       <c r="BF12" t="n">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="BG12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BH12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI12" t="n">
-        <v>1794</v>
+        <v>1897</v>
       </c>
       <c r="BJ12" t="n">
-        <v>894</v>
+        <v>977</v>
       </c>
       <c r="BK12" t="n">
-        <v>49.832775919732</v>
+        <v>51.502372166579</v>
       </c>
       <c r="BL12" t="n">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="BM12" t="n">
-        <v>682</v>
+        <v>723</v>
       </c>
       <c r="BN12" t="n">
-        <v>50.443786982249</v>
+        <v>53.318584070796</v>
       </c>
       <c r="BO12" t="n">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="BP12" t="n">
+        <v>254</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>46.950092421442</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>2332</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>35</v>
+      </c>
+      <c r="BT12" t="n">
         <v>212</v>
       </c>
-      <c r="BQ12" t="n">
-        <v>47.963800904977</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>2449</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>34</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>221</v>
-      </c>
       <c r="BU12" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="BV12" t="n">
         <v>0</v>
@@ -5736,130 +5736,130 @@
         <v>1</v>
       </c>
       <c r="BX12" t="n">
-        <v>6.7571428571429</v>
+        <v>6.7707165109034</v>
       </c>
       <c r="BY12" t="n">
-        <v>2196</v>
+        <v>2407</v>
       </c>
       <c r="BZ12" t="n">
-        <v>4687</v>
+        <v>5330</v>
       </c>
       <c r="CA12" t="n">
-        <v>5203</v>
+        <v>4592</v>
       </c>
       <c r="CB12" t="n">
-        <v>9890</v>
+        <v>9922</v>
       </c>
       <c r="CC12" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="CD12" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="CE12" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="CF12" t="n">
-        <v>353</v>
+        <v>410</v>
       </c>
       <c r="CG12" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="CH12" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="CI12" t="n">
-        <v>383</v>
+        <v>442</v>
       </c>
       <c r="CJ12" t="n">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="CK12" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="CL12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="CM12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="CN12" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="CO12" t="n">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="CP12" t="n">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="CQ12" t="n">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="CR12" t="n">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="CS12" t="n">
         <v>24</v>
       </c>
       <c r="CT12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CU12" t="n">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="CV12" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="CW12" t="n">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="CX12" t="n">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="CY12" t="n">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="CZ12" t="n">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="DA12" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="DB12" t="n">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="DC12" t="n">
-        <v>2953</v>
+        <v>3106</v>
       </c>
       <c r="DD12" t="n">
-        <v>5831</v>
+        <v>6361</v>
       </c>
       <c r="DE12" t="n">
-        <v>5494</v>
+        <v>4915</v>
       </c>
       <c r="DF12" t="n">
-        <v>11325</v>
+        <v>11276</v>
       </c>
       <c r="DG12" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="DH12" t="n">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="DI12" t="n">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="DJ12" t="n">
-        <v>1025</v>
+        <v>912</v>
       </c>
       <c r="DK12" t="n">
-        <v>212</v>
+        <v>286</v>
       </c>
       <c r="DL12" t="n">
-        <v>48423</v>
+        <v>48426</v>
       </c>
       <c r="DM12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DN12" t="n">
         <v>0</v>
@@ -5875,70 +5875,70 @@
         </is>
       </c>
       <c r="DQ12" t="n">
-        <v>1.05</v>
+        <v>1.29</v>
       </c>
       <c r="DR12" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="DS12" t="n">
-        <v>9.4</v>
+        <v>11.67</v>
       </c>
       <c r="DT12" t="n">
-        <v>3.55</v>
+        <v>3.86</v>
       </c>
       <c r="DU12" t="n">
-        <v>3.75</v>
+        <v>3.24</v>
       </c>
       <c r="DV12" t="n">
-        <v>11.05</v>
+        <v>10.1</v>
       </c>
       <c r="DW12" t="n">
-        <v>1.35</v>
+        <v>1.81</v>
       </c>
       <c r="DX12" t="n">
         <v>0.05</v>
       </c>
       <c r="DY12" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="DZ12" t="n">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="EC12" t="n">
-        <v>339.8</v>
+        <v>349.67</v>
       </c>
       <c r="ED12" t="n">
-        <v>18.5</v>
+        <v>13.9</v>
       </c>
       <c r="EE12" t="n">
-        <v>9.65</v>
+        <v>9.1</v>
       </c>
       <c r="EF12" t="n">
-        <v>23.9</v>
+        <v>25.67</v>
       </c>
       <c r="EG12" t="n">
-        <v>3.85</v>
+        <v>2.33</v>
       </c>
       <c r="EH12" t="n">
-        <v>44.7</v>
+        <v>46.52</v>
       </c>
       <c r="EI12" t="n">
-        <v>34.1</v>
+        <v>34.43</v>
       </c>
       <c r="EJ12" t="n">
-        <v>10.6</v>
+        <v>12.1</v>
       </c>
       <c r="EK12" t="n">
-        <v>122.45</v>
+        <v>111.05</v>
       </c>
       <c r="EL12" t="n">
-        <v>5.3</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="13">
@@ -6380,11 +6380,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -6392,346 +6392,346 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F14" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I14" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N14" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="Q14" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="R14" t="n">
         <v>3</v>
       </c>
       <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>10</v>
+      </c>
+      <c r="U14" t="n">
+        <v>41</v>
+      </c>
+      <c r="V14" t="n">
+        <v>28</v>
+      </c>
+      <c r="W14" t="n">
+        <v>34</v>
+      </c>
+      <c r="X14" t="n">
+        <v>79</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>99</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>57</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>123</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>270</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>46.190476190476</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>7974</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>6464</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>81.063456232756</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>4103</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>3721</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>90.68973921520799</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>3871</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>2743</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>70.86024283131</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>744</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>339</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>45.564516129032</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>495</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>99</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>352</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>196</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>54</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>546</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH14" t="n">
         <v>8</v>
       </c>
-      <c r="T14" t="n">
-        <v>14</v>
-      </c>
-      <c r="U14" t="n">
-        <v>50</v>
-      </c>
-      <c r="V14" t="n">
-        <v>37</v>
-      </c>
-      <c r="W14" t="n">
-        <v>36</v>
-      </c>
-      <c r="X14" t="n">
-        <v>86</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>86</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>62</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>155</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>320</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>99</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>48.45</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>8669</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>7258</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>83.723612873457</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>4532</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>4148</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>91.52691968225901</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>4137</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>3110</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>75.17524776408</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>613</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>292</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>47.634584013051</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>366</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>96</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>26.229508196721</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>303</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>181</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>73</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>17</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>7</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>6</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>543</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>2</v>
-      </c>
       <c r="BI14" t="n">
-        <v>1917</v>
+        <v>2038</v>
       </c>
       <c r="BJ14" t="n">
-        <v>955</v>
+        <v>1034</v>
       </c>
       <c r="BK14" t="n">
-        <v>49.81742305686</v>
+        <v>50.736015701668</v>
       </c>
       <c r="BL14" t="n">
-        <v>1387</v>
+        <v>1459</v>
       </c>
       <c r="BM14" t="n">
-        <v>693</v>
+        <v>735</v>
       </c>
       <c r="BN14" t="n">
-        <v>49.963950973324</v>
+        <v>50.376970527759</v>
       </c>
       <c r="BO14" t="n">
-        <v>530</v>
+        <v>579</v>
       </c>
       <c r="BP14" t="n">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="BQ14" t="n">
-        <v>49.433962264151</v>
+        <v>51.640759930915</v>
       </c>
       <c r="BR14" t="n">
-        <v>2423</v>
+        <v>2653</v>
       </c>
       <c r="BS14" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BT14" t="n">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="BU14" t="n">
+        <v>39</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>6.7685185185185</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>1892</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>3998</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>4109</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>8107</v>
+      </c>
+      <c r="CC14" t="n">
         <v>45</v>
       </c>
-      <c r="BV14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>2</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>6.7378205128205</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>1957</v>
-      </c>
-      <c r="BZ14" t="n">
-        <v>3780</v>
-      </c>
-      <c r="CA14" t="n">
-        <v>4031</v>
-      </c>
-      <c r="CB14" t="n">
-        <v>7811</v>
-      </c>
-      <c r="CC14" t="n">
-        <v>56</v>
-      </c>
       <c r="CD14" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="CE14" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="CF14" t="n">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="CG14" t="n">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="CH14" t="n">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="CI14" t="n">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="CJ14" t="n">
-        <v>278</v>
+        <v>352</v>
       </c>
       <c r="CK14" t="n">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="CL14" t="n">
         <v>1</v>
       </c>
       <c r="CM14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="CN14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CO14" t="n">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="CP14" t="n">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="CQ14" t="n">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="CR14" t="n">
-        <v>978</v>
+        <v>961</v>
       </c>
       <c r="CS14" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="CT14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CU14" t="n">
-        <v>314</v>
+        <v>255</v>
       </c>
       <c r="CV14" t="n">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="CW14" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="CX14" t="n">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="CY14" t="n">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="CZ14" t="n">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="DA14" t="n">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="DB14" t="n">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="DC14" t="n">
-        <v>2631</v>
+        <v>2552</v>
       </c>
       <c r="DD14" t="n">
-        <v>4855</v>
+        <v>5068</v>
       </c>
       <c r="DE14" t="n">
-        <v>4389</v>
+        <v>4493</v>
       </c>
       <c r="DF14" t="n">
-        <v>9244</v>
+        <v>9561</v>
       </c>
       <c r="DG14" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="DH14" t="n">
-        <v>327</v>
+        <v>395</v>
       </c>
       <c r="DI14" t="n">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="DJ14" t="n">
-        <v>1020</v>
+        <v>1028</v>
       </c>
       <c r="DK14" t="n">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="DL14" t="n">
-        <v>48309</v>
+        <v>48292</v>
       </c>
       <c r="DM14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DN14" t="n">
         <v>0</v>
@@ -6747,80 +6747,80 @@
         </is>
       </c>
       <c r="DQ14" t="n">
-        <v>1.35</v>
+        <v>0.86</v>
       </c>
       <c r="DR14" t="n">
-        <v>1.9</v>
+        <v>1.24</v>
       </c>
       <c r="DS14" t="n">
-        <v>11.7</v>
+        <v>11.19</v>
       </c>
       <c r="DT14" t="n">
-        <v>4.3</v>
+        <v>3.76</v>
       </c>
       <c r="DU14" t="n">
-        <v>4.95</v>
+        <v>4.76</v>
       </c>
       <c r="DV14" t="n">
-        <v>12.9</v>
+        <v>13.76</v>
       </c>
       <c r="DW14" t="n">
-        <v>2.25</v>
+        <v>1.86</v>
       </c>
       <c r="DX14" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="DY14" t="n">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="DZ14" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.2</v>
+        <v>0.43</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="EC14" t="n">
-        <v>362.9</v>
+        <v>307.81</v>
       </c>
       <c r="ED14" t="n">
-        <v>15.15</v>
+        <v>16.76</v>
       </c>
       <c r="EE14" t="n">
-        <v>9.050000000000001</v>
+        <v>9.33</v>
       </c>
       <c r="EF14" t="n">
-        <v>27.15</v>
+        <v>26</v>
       </c>
       <c r="EG14" t="n">
-        <v>3.65</v>
+        <v>2.57</v>
       </c>
       <c r="EH14" t="n">
-        <v>47.75</v>
+        <v>49.24</v>
       </c>
       <c r="EI14" t="n">
-        <v>34.65</v>
+        <v>35</v>
       </c>
       <c r="EJ14" t="n">
-        <v>13.1</v>
+        <v>14.24</v>
       </c>
       <c r="EK14" t="n">
-        <v>121.15</v>
+        <v>126.33</v>
       </c>
       <c r="EL14" t="n">
-        <v>7.75</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6070</v>
+        <v>1661</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -6828,214 +6828,214 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F15" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I15" t="n">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O15" t="n">
         <v>3</v>
       </c>
       <c r="P15" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q15" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T15" t="n">
         <v>14</v>
       </c>
       <c r="U15" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="V15" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="W15" t="n">
+        <v>36</v>
+      </c>
+      <c r="X15" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>93</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>339</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>107</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE15" t="n">
         <v>23</v>
       </c>
-      <c r="X15" t="n">
-        <v>69</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>63</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>104</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>244</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>85</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>24</v>
-      </c>
       <c r="AF15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>48.238095238095</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>8997</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>7500</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>83.36112037345799</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>4662</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>4259</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>91.355641355641</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>4335</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>3241</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>74.763552479815</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>651</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>309</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>47.465437788018</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>387</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>99</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>25.581395348837</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>318</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>193</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>75</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>7</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>573</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH15" t="n">
         <v>2</v>
       </c>
-      <c r="AG15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>54.15</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>10196</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>8826</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>86.563358179678</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>5668</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>5221</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>92.113620324629</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>4528</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>3605</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>79.615724381625</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>752</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>411</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>54.654255319149</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>348</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>76</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>21.83908045977</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>303</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>145</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>43</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>11</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>9</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>9</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>479</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>4</v>
-      </c>
       <c r="BI15" t="n">
-        <v>1693</v>
+        <v>2023</v>
       </c>
       <c r="BJ15" t="n">
-        <v>835</v>
+        <v>1000</v>
       </c>
       <c r="BK15" t="n">
-        <v>49.320732427643</v>
+        <v>49.431537320811</v>
       </c>
       <c r="BL15" t="n">
-        <v>1223</v>
+        <v>1462</v>
       </c>
       <c r="BM15" t="n">
-        <v>616</v>
+        <v>723</v>
       </c>
       <c r="BN15" t="n">
-        <v>50.367947669665</v>
+        <v>49.452804377565</v>
       </c>
       <c r="BO15" t="n">
-        <v>470</v>
+        <v>561</v>
       </c>
       <c r="BP15" t="n">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="BQ15" t="n">
-        <v>46.595744680851</v>
+        <v>49.376114081996</v>
       </c>
       <c r="BR15" t="n">
-        <v>2303</v>
+        <v>2573</v>
       </c>
       <c r="BS15" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="BT15" t="n">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="BU15" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="BV15" t="n">
         <v>1</v>
@@ -7044,49 +7044,49 @@
         <v>2</v>
       </c>
       <c r="BX15" t="n">
-        <v>6.7086816720257</v>
+        <v>6.7363914373089</v>
       </c>
       <c r="BY15" t="n">
-        <v>1393</v>
+        <v>2015</v>
       </c>
       <c r="BZ15" t="n">
-        <v>3175</v>
+        <v>3944</v>
       </c>
       <c r="CA15" t="n">
-        <v>4133</v>
+        <v>4204</v>
       </c>
       <c r="CB15" t="n">
-        <v>7308</v>
+        <v>8148</v>
       </c>
       <c r="CC15" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="CD15" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="CE15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CF15" t="n">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="CG15" t="n">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="CH15" t="n">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="CI15" t="n">
-        <v>329</v>
+        <v>444</v>
       </c>
       <c r="CJ15" t="n">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="CK15" t="n">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="CL15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CM15" t="n">
         <v>11</v>
@@ -7095,79 +7095,79 @@
         <v>6</v>
       </c>
       <c r="CO15" t="n">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="CP15" t="n">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="CQ15" t="n">
-        <v>394</v>
+        <v>523</v>
       </c>
       <c r="CR15" t="n">
-        <v>897</v>
+        <v>1039</v>
       </c>
       <c r="CS15" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="CT15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CU15" t="n">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="CV15" t="n">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="CW15" t="n">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="CX15" t="n">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="CY15" t="n">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="CZ15" t="n">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="DA15" t="n">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="DB15" t="n">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="DC15" t="n">
-        <v>2035</v>
+        <v>2731</v>
       </c>
       <c r="DD15" t="n">
-        <v>4205</v>
+        <v>5089</v>
       </c>
       <c r="DE15" t="n">
-        <v>4493</v>
+        <v>4588</v>
       </c>
       <c r="DF15" t="n">
-        <v>8698</v>
+        <v>9677</v>
       </c>
       <c r="DG15" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="DH15" t="n">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="DI15" t="n">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="DJ15" t="n">
-        <v>928</v>
+        <v>1078</v>
       </c>
       <c r="DK15" t="n">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="DL15" t="n">
-        <v>48424</v>
+        <v>48309</v>
       </c>
       <c r="DM15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DN15" t="n">
         <v>0</v>
@@ -7183,80 +7183,80 @@
         </is>
       </c>
       <c r="DQ15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="DR15" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="DS15" t="n">
-        <v>11.6</v>
+        <v>11.76</v>
       </c>
       <c r="DT15" t="n">
-        <v>3.45</v>
+        <v>4.29</v>
       </c>
       <c r="DU15" t="n">
-        <v>4.25</v>
+        <v>5.1</v>
       </c>
       <c r="DV15" t="n">
-        <v>11.45</v>
+        <v>12.76</v>
       </c>
       <c r="DW15" t="n">
-        <v>1.85</v>
+        <v>2.24</v>
       </c>
       <c r="DX15" t="n">
         <v>0.1</v>
       </c>
       <c r="DY15" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="DZ15" t="n">
-        <v>1.15</v>
+        <v>1.71</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.45</v>
+        <v>0.19</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="EC15" t="n">
-        <v>441.3</v>
+        <v>357.14</v>
       </c>
       <c r="ED15" t="n">
-        <v>15.15</v>
+        <v>15.14</v>
       </c>
       <c r="EE15" t="n">
-        <v>7.25</v>
+        <v>9.19</v>
       </c>
       <c r="EF15" t="n">
-        <v>23.95</v>
+        <v>27.29</v>
       </c>
       <c r="EG15" t="n">
-        <v>2.15</v>
+        <v>3.57</v>
       </c>
       <c r="EH15" t="n">
-        <v>41.75</v>
+        <v>47.62</v>
       </c>
       <c r="EI15" t="n">
-        <v>30.8</v>
+        <v>34.43</v>
       </c>
       <c r="EJ15" t="n">
-        <v>10.95</v>
+        <v>13.19</v>
       </c>
       <c r="EK15" t="n">
-        <v>115.15</v>
+        <v>122.52</v>
       </c>
       <c r="EL15" t="n">
-        <v>5.2</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1662</v>
+        <v>6070</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -7264,346 +7264,346 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" t="n">
+        <v>26</v>
+      </c>
+      <c r="F16" t="n">
+        <v>34</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>16</v>
       </c>
-      <c r="F16" t="n">
-        <v>25</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>12</v>
-      </c>
       <c r="I16" t="n">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P16" t="n">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="Q16" t="n">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="R16" t="n">
         <v>2</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T16" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="U16" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="V16" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="W16" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="X16" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y16" t="n">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="Z16" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="AA16" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AB16" t="n">
         <v>253</v>
       </c>
       <c r="AC16" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AD16" t="n">
         <v>9</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AF16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AH16" t="n">
-        <v>45.95</v>
+        <v>54</v>
       </c>
       <c r="AI16" t="n">
-        <v>7586</v>
+        <v>10651</v>
       </c>
       <c r="AJ16" t="n">
-        <v>6132</v>
+        <v>9210</v>
       </c>
       <c r="AK16" t="n">
-        <v>80.833113630372</v>
+        <v>86.47075391982</v>
       </c>
       <c r="AL16" t="n">
-        <v>3934</v>
+        <v>5980</v>
       </c>
       <c r="AM16" t="n">
-        <v>3569</v>
+        <v>5505</v>
       </c>
       <c r="AN16" t="n">
-        <v>90.721911540417</v>
+        <v>92.056856187291</v>
       </c>
       <c r="AO16" t="n">
-        <v>3652</v>
+        <v>4671</v>
       </c>
       <c r="AP16" t="n">
-        <v>2563</v>
+        <v>3705</v>
       </c>
       <c r="AQ16" t="n">
-        <v>70.18072289156601</v>
+        <v>79.31920359666</v>
       </c>
       <c r="AR16" t="n">
-        <v>716</v>
+        <v>801</v>
       </c>
       <c r="AS16" t="n">
-        <v>328</v>
+        <v>436</v>
       </c>
       <c r="AT16" t="n">
-        <v>45.810055865922</v>
+        <v>54.431960049938</v>
       </c>
       <c r="AU16" t="n">
-        <v>474</v>
+        <v>355</v>
       </c>
       <c r="AV16" t="n">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="AW16" t="n">
-        <v>20.253164556962</v>
+        <v>22.535211267606</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AZ16" t="n">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="BA16" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="BB16" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BC16" t="n">
         <v>10</v>
       </c>
       <c r="BD16" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BE16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BF16" t="n">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="BG16" t="n">
         <v>1</v>
       </c>
       <c r="BH16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BI16" t="n">
-        <v>1939</v>
+        <v>1776</v>
       </c>
       <c r="BJ16" t="n">
-        <v>983</v>
+        <v>873</v>
       </c>
       <c r="BK16" t="n">
-        <v>50.696235172769</v>
+        <v>49.155405405405</v>
       </c>
       <c r="BL16" t="n">
-        <v>1370</v>
+        <v>1278</v>
       </c>
       <c r="BM16" t="n">
-        <v>690</v>
+        <v>643</v>
       </c>
       <c r="BN16" t="n">
-        <v>50.36496350365</v>
+        <v>50.312989045383</v>
       </c>
       <c r="BO16" t="n">
-        <v>569</v>
+        <v>498</v>
       </c>
       <c r="BP16" t="n">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="BQ16" t="n">
-        <v>51.493848857645</v>
+        <v>46.184738955823</v>
       </c>
       <c r="BR16" t="n">
-        <v>2532</v>
+        <v>2412</v>
       </c>
       <c r="BS16" t="n">
+        <v>46</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>240</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>41</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>6.7128834355828</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>1514</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>3405</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>4243</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>7648</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>55</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>41</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>31</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>448</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>102</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>88</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>355</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>258</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>111</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>3</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>12</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>6</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>153</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>174</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>422</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>961</v>
+      </c>
+      <c r="CS16" t="n">
         <v>32</v>
       </c>
-      <c r="BT16" t="n">
-        <v>274</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>37</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>6.7626623376623</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>1839</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>3861</v>
-      </c>
-      <c r="CA16" t="n">
-        <v>3915</v>
-      </c>
-      <c r="CB16" t="n">
-        <v>7776</v>
-      </c>
-      <c r="CC16" t="n">
-        <v>44</v>
-      </c>
-      <c r="CD16" t="n">
-        <v>39</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>23</v>
-      </c>
-      <c r="CF16" t="n">
-        <v>488</v>
-      </c>
-      <c r="CG16" t="n">
-        <v>94</v>
-      </c>
-      <c r="CH16" t="n">
-        <v>89</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>417</v>
-      </c>
-      <c r="CJ16" t="n">
-        <v>330</v>
-      </c>
-      <c r="CK16" t="n">
-        <v>148</v>
-      </c>
-      <c r="CL16" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM16" t="n">
-        <v>13</v>
-      </c>
-      <c r="CN16" t="n">
-        <v>8</v>
-      </c>
-      <c r="CO16" t="n">
-        <v>150</v>
-      </c>
-      <c r="CP16" t="n">
-        <v>190</v>
-      </c>
-      <c r="CQ16" t="n">
-        <v>497</v>
-      </c>
-      <c r="CR16" t="n">
-        <v>921</v>
-      </c>
-      <c r="CS16" t="n">
-        <v>38</v>
-      </c>
       <c r="CT16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CU16" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="CV16" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="CW16" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="CX16" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="CY16" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="CZ16" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="DA16" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="DB16" t="n">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="DC16" t="n">
-        <v>2472</v>
+        <v>2200</v>
       </c>
       <c r="DD16" t="n">
-        <v>4887</v>
+        <v>4502</v>
       </c>
       <c r="DE16" t="n">
-        <v>4287</v>
+        <v>4611</v>
       </c>
       <c r="DF16" t="n">
-        <v>9174</v>
+        <v>9113</v>
       </c>
       <c r="DG16" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="DH16" t="n">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="DI16" t="n">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="DJ16" t="n">
-        <v>967</v>
+        <v>977</v>
       </c>
       <c r="DK16" t="n">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="DL16" t="n">
-        <v>48292</v>
+        <v>48424</v>
       </c>
       <c r="DM16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DN16" t="n">
         <v>0</v>
@@ -7619,80 +7619,80 @@
         </is>
       </c>
       <c r="DQ16" t="n">
-        <v>0.8</v>
+        <v>1.24</v>
       </c>
       <c r="DR16" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="DS16" t="n">
-        <v>11</v>
+        <v>11.38</v>
       </c>
       <c r="DT16" t="n">
-        <v>3.6</v>
+        <v>3.48</v>
       </c>
       <c r="DU16" t="n">
-        <v>4.55</v>
+        <v>4.24</v>
       </c>
       <c r="DV16" t="n">
-        <v>13.7</v>
+        <v>11.43</v>
       </c>
       <c r="DW16" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="DX16" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="DY16" t="n">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="DZ16" t="n">
-        <v>1.7</v>
+        <v>1.14</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.05</v>
+        <v>0.24</v>
       </c>
       <c r="EC16" t="n">
-        <v>306.6</v>
+        <v>438.57</v>
       </c>
       <c r="ED16" t="n">
-        <v>16.25</v>
+        <v>15.19</v>
       </c>
       <c r="EE16" t="n">
-        <v>9.550000000000001</v>
+        <v>7.24</v>
       </c>
       <c r="EF16" t="n">
-        <v>26.25</v>
+        <v>24.24</v>
       </c>
       <c r="EG16" t="n">
-        <v>2.6</v>
+        <v>2.14</v>
       </c>
       <c r="EH16" t="n">
-        <v>49.15</v>
+        <v>41.57</v>
       </c>
       <c r="EI16" t="n">
-        <v>34.5</v>
+        <v>30.62</v>
       </c>
       <c r="EJ16" t="n">
-        <v>14.65</v>
+        <v>10.95</v>
       </c>
       <c r="EK16" t="n">
-        <v>126.6</v>
+        <v>114.86</v>
       </c>
       <c r="EL16" t="n">
-        <v>5.7</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -7703,259 +7703,259 @@
         <v>21</v>
       </c>
       <c r="E17" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I17" t="n">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
         <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q17" t="n">
         <v>83</v>
       </c>
       <c r="R17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>8</v>
+      </c>
+      <c r="U17" t="n">
+        <v>35</v>
+      </c>
+      <c r="V17" t="n">
+        <v>20</v>
+      </c>
+      <c r="W17" t="n">
+        <v>27</v>
+      </c>
+      <c r="X17" t="n">
+        <v>68</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>84</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>72</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>161</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>337</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>105</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF17" t="n">
         <v>0</v>
       </c>
-      <c r="T17" t="n">
-        <v>15</v>
-      </c>
-      <c r="U17" t="n">
-        <v>37</v>
-      </c>
-      <c r="V17" t="n">
-        <v>25</v>
-      </c>
-      <c r="W17" t="n">
-        <v>23</v>
-      </c>
-      <c r="X17" t="n">
-        <v>61</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>95</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>63</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>156</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>351</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF17" t="n">
+      <c r="AG17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>44.571428571429</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>8060</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>6534</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>81.06699751860999</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>3701</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>3323</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>89.786544177249</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>4359</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>3211</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>73.663684331269</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>727</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>358</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>49.243466299862</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>347</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>25.936599423631</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>366</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>217</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>74</v>
+      </c>
+      <c r="BB17" t="n">
         <v>3</v>
       </c>
-      <c r="AG17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>43.952380952381</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>7865</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>6325</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>80.41958041958</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>4346</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>3905</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>89.852738150023</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>3519</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>2420</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>68.769536800227</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>754</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>336</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>44.562334217507</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>309</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>68</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>22.006472491909</v>
-      </c>
-      <c r="AX17" t="n">
+      <c r="BC17" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>419</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>2118</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>1069</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>50.472143531634</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>1553</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>801</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>51.577591757888</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>565</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>268</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>47.433628318584</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>2627</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>26</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>284</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>44</v>
+      </c>
+      <c r="BV17" t="n">
         <v>3</v>
       </c>
-      <c r="AY17" t="n">
-        <v>339</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>148</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>69</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>13</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>3</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>562</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>2027</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>1023</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>50.468672915639</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>1486</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>744</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>50.067294751009</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>541</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>279</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>51.571164510166</v>
-      </c>
-      <c r="BR17" t="n">
-        <v>2605</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>27</v>
-      </c>
-      <c r="BT17" t="n">
-        <v>264</v>
-      </c>
-      <c r="BU17" t="n">
-        <v>43</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>0</v>
-      </c>
       <c r="BW17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BX17" t="n">
-        <v>6.6978395061728</v>
+        <v>6.7258064516129</v>
       </c>
       <c r="BY17" t="n">
-        <v>2059</v>
+        <v>1527</v>
       </c>
       <c r="BZ17" t="n">
-        <v>4241</v>
+        <v>3690</v>
       </c>
       <c r="CA17" t="n">
-        <v>4332</v>
+        <v>5117</v>
       </c>
       <c r="CB17" t="n">
-        <v>8573</v>
+        <v>8807</v>
       </c>
       <c r="CC17" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="CD17" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CE17" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="CF17" t="n">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="CG17" t="n">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="CH17" t="n">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="CI17" t="n">
-        <v>463</v>
+        <v>301</v>
       </c>
       <c r="CJ17" t="n">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="CK17" t="n">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="CL17" t="n">
         <v>3</v>
@@ -7967,76 +7967,76 @@
         <v>7</v>
       </c>
       <c r="CO17" t="n">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="CP17" t="n">
-        <v>231</v>
+        <v>185</v>
       </c>
       <c r="CQ17" t="n">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="CR17" t="n">
-        <v>978</v>
+        <v>943</v>
       </c>
       <c r="CS17" t="n">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="CT17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CU17" t="n">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="CV17" t="n">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="CW17" t="n">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="CX17" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="CY17" t="n">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="CZ17" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="DA17" t="n">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="DB17" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="DC17" t="n">
-        <v>2818</v>
+        <v>2222</v>
       </c>
       <c r="DD17" t="n">
-        <v>5354</v>
+        <v>4781</v>
       </c>
       <c r="DE17" t="n">
-        <v>4656</v>
+        <v>5495</v>
       </c>
       <c r="DF17" t="n">
-        <v>10010</v>
+        <v>10276</v>
       </c>
       <c r="DG17" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="DH17" t="n">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="DI17" t="n">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="DJ17" t="n">
-        <v>950</v>
+        <v>995</v>
       </c>
       <c r="DK17" t="n">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="DL17" t="n">
-        <v>48481</v>
+        <v>48425</v>
       </c>
       <c r="DM17" t="n">
         <v>21</v>
@@ -8055,80 +8055,80 @@
         </is>
       </c>
       <c r="DQ17" t="n">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="DR17" t="n">
-        <v>1.76</v>
+        <v>1.38</v>
       </c>
       <c r="DS17" t="n">
-        <v>10.43</v>
+        <v>10.67</v>
       </c>
       <c r="DT17" t="n">
-        <v>2.9</v>
+        <v>3.24</v>
       </c>
       <c r="DU17" t="n">
-        <v>3.19</v>
+        <v>5</v>
       </c>
       <c r="DV17" t="n">
-        <v>12.57</v>
+        <v>13.52</v>
       </c>
       <c r="DW17" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="DX17" t="n">
-        <v>0.05</v>
+        <v>0.29</v>
       </c>
       <c r="DY17" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="DZ17" t="n">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="EA17" t="n">
-        <v>0.57</v>
+        <v>0.33</v>
       </c>
       <c r="EB17" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="EC17" t="n">
-        <v>301.19</v>
+        <v>311.14</v>
       </c>
       <c r="ED17" t="n">
-        <v>16.14</v>
+        <v>17.43</v>
       </c>
       <c r="EE17" t="n">
-        <v>7.05</v>
+        <v>10.33</v>
       </c>
       <c r="EF17" t="n">
-        <v>26.76</v>
+        <v>19.95</v>
       </c>
       <c r="EG17" t="n">
-        <v>3.29</v>
+        <v>3.52</v>
       </c>
       <c r="EH17" t="n">
-        <v>48.71</v>
+        <v>50.9</v>
       </c>
       <c r="EI17" t="n">
-        <v>35.43</v>
+        <v>38.14</v>
       </c>
       <c r="EJ17" t="n">
-        <v>13.29</v>
+        <v>12.76</v>
       </c>
       <c r="EK17" t="n">
-        <v>124.05</v>
+        <v>125.1</v>
       </c>
       <c r="EL17" t="n">
-        <v>7.43</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -8136,346 +8136,346 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F18" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I18" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
         <v>3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="O18" t="n">
         <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q18" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>15</v>
+      </c>
+      <c r="U18" t="n">
+        <v>37</v>
+      </c>
+      <c r="V18" t="n">
+        <v>25</v>
+      </c>
+      <c r="W18" t="n">
+        <v>23</v>
+      </c>
+      <c r="X18" t="n">
+        <v>61</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>95</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>63</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>156</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>351</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF18" t="n">
         <v>3</v>
       </c>
-      <c r="S18" t="n">
+      <c r="AG18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>43.952380952381</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>7865</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>6325</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>80.41958041958</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>4346</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>3905</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>89.852738150023</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>3519</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2420</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>68.769536800227</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>754</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>336</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>44.562334217507</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>309</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>68</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>22.006472491909</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>339</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>148</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>69</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>562</v>
+      </c>
+      <c r="BG18" t="n">
         <v>1</v>
       </c>
-      <c r="T18" t="n">
+      <c r="BH18" t="n">
         <v>8</v>
       </c>
-      <c r="U18" t="n">
-        <v>33</v>
-      </c>
-      <c r="V18" t="n">
-        <v>19</v>
-      </c>
-      <c r="W18" t="n">
-        <v>25</v>
-      </c>
-      <c r="X18" t="n">
-        <v>66</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>78</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>68</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>154</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>319</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>98</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>44.35</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>7645</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>6194</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>81.020274689339</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>3583</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>3213</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>89.67345799609301</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>4062</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>2981</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>73.38749384539599</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>684</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>338</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>49.415204678363</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>321</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>25.233644859813</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>355</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>211</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>70</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>408</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>5</v>
-      </c>
       <c r="BI18" t="n">
-        <v>2035</v>
+        <v>2027</v>
       </c>
       <c r="BJ18" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="BK18" t="n">
-        <v>50.31941031941</v>
+        <v>50.468672915639</v>
       </c>
       <c r="BL18" t="n">
-        <v>1498</v>
+        <v>1486</v>
       </c>
       <c r="BM18" t="n">
-        <v>773</v>
+        <v>744</v>
       </c>
       <c r="BN18" t="n">
-        <v>51.602136181575</v>
+        <v>50.067294751009</v>
       </c>
       <c r="BO18" t="n">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="BP18" t="n">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="BQ18" t="n">
-        <v>46.741154562384</v>
+        <v>51.571164510166</v>
       </c>
       <c r="BR18" t="n">
-        <v>2501</v>
+        <v>2605</v>
       </c>
       <c r="BS18" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BT18" t="n">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="BU18" t="n">
         <v>43</v>
       </c>
       <c r="BV18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BW18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BX18" t="n">
-        <v>6.7138047138047</v>
+        <v>6.6978395061728</v>
       </c>
       <c r="BY18" t="n">
-        <v>1484</v>
+        <v>2059</v>
       </c>
       <c r="BZ18" t="n">
-        <v>3590</v>
+        <v>4241</v>
       </c>
       <c r="CA18" t="n">
-        <v>4833</v>
+        <v>4332</v>
       </c>
       <c r="CB18" t="n">
-        <v>8423</v>
+        <v>8573</v>
       </c>
       <c r="CC18" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="CD18" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="CE18" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="CF18" t="n">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="CG18" t="n">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="CH18" t="n">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="CI18" t="n">
-        <v>294</v>
+        <v>463</v>
       </c>
       <c r="CJ18" t="n">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="CK18" t="n">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="CL18" t="n">
         <v>3</v>
       </c>
       <c r="CM18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CN18" t="n">
         <v>7</v>
       </c>
       <c r="CO18" t="n">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="CP18" t="n">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="CQ18" t="n">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="CR18" t="n">
-        <v>881</v>
+        <v>978</v>
       </c>
       <c r="CS18" t="n">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="CT18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CU18" t="n">
-        <v>241</v>
+        <v>308</v>
       </c>
       <c r="CV18" t="n">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="CW18" t="n">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="CX18" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="CY18" t="n">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="CZ18" t="n">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="DA18" t="n">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="DB18" t="n">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="DC18" t="n">
-        <v>2153</v>
+        <v>2818</v>
       </c>
       <c r="DD18" t="n">
-        <v>4638</v>
+        <v>5354</v>
       </c>
       <c r="DE18" t="n">
-        <v>5183</v>
+        <v>4656</v>
       </c>
       <c r="DF18" t="n">
-        <v>9821</v>
+        <v>10010</v>
       </c>
       <c r="DG18" t="n">
         <v>50</v>
       </c>
       <c r="DH18" t="n">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="DI18" t="n">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="DJ18" t="n">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="DK18" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="DL18" t="n">
-        <v>48425</v>
+        <v>48481</v>
       </c>
       <c r="DM18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DN18" t="n">
         <v>0</v>
@@ -8491,70 +8491,70 @@
         </is>
       </c>
       <c r="DQ18" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="DR18" t="n">
-        <v>1.45</v>
+        <v>1.76</v>
       </c>
       <c r="DS18" t="n">
-        <v>10.6</v>
+        <v>10.43</v>
       </c>
       <c r="DT18" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="DU18" t="n">
-        <v>4.9</v>
+        <v>3.19</v>
       </c>
       <c r="DV18" t="n">
-        <v>13.8</v>
+        <v>12.57</v>
       </c>
       <c r="DW18" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="DX18" t="n">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="DY18" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="DZ18" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="EA18" t="n">
-        <v>0.35</v>
+        <v>0.57</v>
       </c>
       <c r="EB18" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="EC18" t="n">
-        <v>309.7</v>
+        <v>301.19</v>
       </c>
       <c r="ED18" t="n">
-        <v>17.75</v>
+        <v>16.14</v>
       </c>
       <c r="EE18" t="n">
-        <v>10.55</v>
+        <v>7.05</v>
       </c>
       <c r="EF18" t="n">
-        <v>20.4</v>
+        <v>26.76</v>
       </c>
       <c r="EG18" t="n">
-        <v>3.5</v>
+        <v>3.29</v>
       </c>
       <c r="EH18" t="n">
-        <v>51.2</v>
+        <v>48.71</v>
       </c>
       <c r="EI18" t="n">
-        <v>38.65</v>
+        <v>35.43</v>
       </c>
       <c r="EJ18" t="n">
-        <v>12.55</v>
+        <v>13.29</v>
       </c>
       <c r="EK18" t="n">
-        <v>125.05</v>
+        <v>124.05</v>
       </c>
       <c r="EL18" t="n">
-        <v>7.7</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="19">

--- a/sofascore_team_data/Ligue_1_Team_Stats.xlsx
+++ b/sofascore_team_data/Ligue_1_Team_Stats.xlsx
@@ -1160,13 +1160,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -1175,7 +1175,7 @@
         <v>36</v>
       </c>
       <c r="I2" t="n">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
@@ -1190,19 +1190,19 @@
         <v>13</v>
       </c>
       <c r="N2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O2" t="n">
         <v>10</v>
       </c>
       <c r="P2" t="n">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="Q2" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="R2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S2" t="n">
         <v>13</v>
@@ -1211,109 +1211,109 @@
         <v>28</v>
       </c>
       <c r="U2" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="V2" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="W2" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="X2" t="n">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="Y2" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Z2" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AA2" t="n">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="AB2" t="n">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="AC2" t="n">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="AD2" t="n">
         <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>3</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>68.619047619048</v>
+        <v>68.545454545455</v>
       </c>
       <c r="AI2" t="n">
-        <v>15259</v>
+        <v>15890</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13950</v>
+        <v>14517</v>
       </c>
       <c r="AK2" t="n">
-        <v>91.42145618979001</v>
+        <v>91.359345500315</v>
       </c>
       <c r="AL2" t="n">
-        <v>6561</v>
+        <v>6845</v>
       </c>
       <c r="AM2" t="n">
-        <v>6217</v>
+        <v>6483</v>
       </c>
       <c r="AN2" t="n">
-        <v>94.75689681451</v>
+        <v>94.711468224982</v>
       </c>
       <c r="AO2" t="n">
-        <v>8698</v>
+        <v>9045</v>
       </c>
       <c r="AP2" t="n">
-        <v>7733</v>
+        <v>8034</v>
       </c>
       <c r="AQ2" t="n">
-        <v>88.905495516211</v>
+        <v>88.822553897181</v>
       </c>
       <c r="AR2" t="n">
-        <v>745</v>
+        <v>789</v>
       </c>
       <c r="AS2" t="n">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="AT2" t="n">
-        <v>65.369127516779</v>
+        <v>65.399239543726</v>
       </c>
       <c r="AU2" t="n">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="AV2" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AW2" t="n">
-        <v>26.402640264026</v>
+        <v>26.747720364742</v>
       </c>
       <c r="AX2" t="n">
         <v>11</v>
       </c>
       <c r="AY2" t="n">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="AZ2" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="BA2" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="BB2" t="n">
         <v>3</v>
       </c>
       <c r="BC2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD2" t="n">
         <v>4</v>
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="BF2" t="n">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="BG2" t="n">
         <v>2</v>
@@ -1331,40 +1331,40 @@
         <v>6</v>
       </c>
       <c r="BI2" t="n">
-        <v>1733</v>
+        <v>1818</v>
       </c>
       <c r="BJ2" t="n">
-        <v>845</v>
+        <v>895</v>
       </c>
       <c r="BK2" t="n">
-        <v>48.759376803231</v>
+        <v>49.229922992299</v>
       </c>
       <c r="BL2" t="n">
-        <v>1422</v>
+        <v>1491</v>
       </c>
       <c r="BM2" t="n">
-        <v>694</v>
+        <v>734</v>
       </c>
       <c r="BN2" t="n">
-        <v>48.804500703235</v>
+        <v>49.228705566734</v>
       </c>
       <c r="BO2" t="n">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="BP2" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="BQ2" t="n">
-        <v>48.553054662379</v>
+        <v>49.235474006116</v>
       </c>
       <c r="BR2" t="n">
-        <v>2327</v>
+        <v>2448</v>
       </c>
       <c r="BS2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BT2" t="n">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="BU2" t="n">
         <v>23</v>
@@ -1376,46 +1376,46 @@
         <v>1</v>
       </c>
       <c r="BX2" t="n">
-        <v>7.0378548895899</v>
+        <v>7.0277108433735</v>
       </c>
       <c r="BY2" t="n">
-        <v>1081</v>
+        <v>1122</v>
       </c>
       <c r="BZ2" t="n">
-        <v>2173</v>
+        <v>2258</v>
       </c>
       <c r="CA2" t="n">
-        <v>3224</v>
+        <v>3369</v>
       </c>
       <c r="CB2" t="n">
-        <v>5397</v>
+        <v>5627</v>
       </c>
       <c r="CC2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CD2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CE2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CF2" t="n">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="CG2" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="CH2" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CI2" t="n">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="CJ2" t="n">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="CK2" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="CL2" t="n">
         <v>5</v>
@@ -1424,82 +1424,82 @@
         <v>14</v>
       </c>
       <c r="CN2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CO2" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="CP2" t="n">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="CQ2" t="n">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="CR2" t="n">
-        <v>935</v>
+        <v>989</v>
       </c>
       <c r="CS2" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="CT2" t="n">
         <v>3</v>
       </c>
       <c r="CU2" t="n">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="CV2" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="CW2" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="CX2" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="CY2" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="CZ2" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="DA2" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="DB2" t="n">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="DC2" t="n">
-        <v>1606</v>
+        <v>1676</v>
       </c>
       <c r="DD2" t="n">
-        <v>3083</v>
+        <v>3216</v>
       </c>
       <c r="DE2" t="n">
-        <v>3702</v>
+        <v>3871</v>
       </c>
       <c r="DF2" t="n">
-        <v>6785</v>
+        <v>7087</v>
       </c>
       <c r="DG2" t="n">
         <v>30</v>
       </c>
       <c r="DH2" t="n">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="DI2" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1060</v>
+        <v>1095</v>
       </c>
       <c r="DK2" t="n">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="DL2" t="n">
         <v>48482</v>
       </c>
       <c r="DM2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DN2" t="n">
         <v>0</v>
@@ -1515,70 +1515,70 @@
         </is>
       </c>
       <c r="DQ2" t="n">
-        <v>2.29</v>
+        <v>2.23</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="DS2" t="n">
-        <v>17.48</v>
+        <v>17.68</v>
       </c>
       <c r="DT2" t="n">
-        <v>6.76</v>
+        <v>6.77</v>
       </c>
       <c r="DU2" t="n">
-        <v>6.14</v>
+        <v>6.23</v>
       </c>
       <c r="DV2" t="n">
-        <v>10.14</v>
+        <v>10.09</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="DX2" t="n">
         <v>0.05</v>
       </c>
       <c r="DY2" t="n">
-        <v>3.43</v>
+        <v>3.68</v>
       </c>
       <c r="DZ2" t="n">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="EB2" t="n">
         <v>0.14</v>
       </c>
       <c r="EC2" t="n">
-        <v>664.29</v>
+        <v>659.86</v>
       </c>
       <c r="ED2" t="n">
-        <v>15.05</v>
+        <v>15.32</v>
       </c>
       <c r="EE2" t="n">
-        <v>6.86</v>
+        <v>6.73</v>
       </c>
       <c r="EF2" t="n">
-        <v>13.33</v>
+        <v>13.36</v>
       </c>
       <c r="EG2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="EH2" t="n">
-        <v>40.24</v>
+        <v>40.68</v>
       </c>
       <c r="EI2" t="n">
-        <v>33.05</v>
+        <v>33.36</v>
       </c>
       <c r="EJ2" t="n">
-        <v>7.19</v>
+        <v>7.32</v>
       </c>
       <c r="EK2" t="n">
-        <v>110.81</v>
+        <v>111.27</v>
       </c>
       <c r="EL2" t="n">
-        <v>9.43</v>
+        <v>9.449999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -2892,11 +2892,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Stade Rennais</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1643</v>
+        <v>1658</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2904,346 +2904,346 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="n">
         <v>34</v>
       </c>
       <c r="F6" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I6" t="n">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
         <v>31</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="Q6" t="n">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="R6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U6" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="V6" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W6" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="X6" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y6" t="n">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Z6" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AA6" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AB6" t="n">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="AC6" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
-        <v>54.238095238095</v>
+        <v>51.181818181818</v>
       </c>
       <c r="AI6" t="n">
-        <v>10075</v>
+        <v>10050</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8551</v>
+        <v>8517</v>
       </c>
       <c r="AK6" t="n">
-        <v>84.87344913151399</v>
+        <v>84.746268656716</v>
       </c>
       <c r="AL6" t="n">
-        <v>4679</v>
+        <v>4773</v>
       </c>
       <c r="AM6" t="n">
-        <v>4334</v>
+        <v>4300</v>
       </c>
       <c r="AN6" t="n">
-        <v>92.626629621714</v>
+        <v>90.09009009009</v>
       </c>
       <c r="AO6" t="n">
-        <v>5396</v>
+        <v>5277</v>
       </c>
       <c r="AP6" t="n">
         <v>4217</v>
       </c>
       <c r="AQ6" t="n">
-        <v>78.150481838399</v>
+        <v>79.912829259049</v>
       </c>
       <c r="AR6" t="n">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="AS6" t="n">
-        <v>380</v>
+        <v>306</v>
       </c>
       <c r="AT6" t="n">
-        <v>57.750759878419</v>
+        <v>47.962382445141</v>
       </c>
       <c r="AU6" t="n">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="AV6" t="n">
+        <v>85</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>20.142180094787</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>348</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>177</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>62</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>470</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>1924</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>976</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>50.727650727651</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>1480</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>735</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>49.662162162162</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>444</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>241</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>54.279279279279</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>2709</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>52</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>269</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>37</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>6.7954128440367</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>1765</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>3579</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>4590</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>8169</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>68</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>52</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>42</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>512</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>111</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>98</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>390</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>307</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>137</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>6</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>14</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>10</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>213</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>236</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>483</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>1043</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>44</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>5</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>307</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>91</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>206</v>
+      </c>
+      <c r="CX6" t="n">
         <v>101</v>
       </c>
-      <c r="AW6" t="n">
-        <v>25.31328320802</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>307</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>181</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>13</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>3</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>402</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>1902</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>965</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>50.736067297581</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>1412</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>707</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>50.070821529745</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>490</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>258</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>52.65306122449</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>2554</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>26</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>247</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>45</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>5</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>6.8055214723926</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>1473</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>3067</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>4167</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>7234</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>46</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>31</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>25</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>523</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>85</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>68</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>336</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>322</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>148</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>8</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>11</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>6</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>200</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>149</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>464</v>
-      </c>
-      <c r="CR6" t="n">
-        <v>1010</v>
-      </c>
-      <c r="CS6" t="n">
-        <v>29</v>
-      </c>
-      <c r="CT6" t="n">
-        <v>3</v>
-      </c>
-      <c r="CU6" t="n">
-        <v>212</v>
-      </c>
-      <c r="CV6" t="n">
-        <v>52</v>
-      </c>
-      <c r="CW6" t="n">
-        <v>134</v>
-      </c>
-      <c r="CX6" t="n">
-        <v>78</v>
-      </c>
       <c r="CY6" t="n">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="CZ6" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="DA6" t="n">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="DB6" t="n">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="DC6" t="n">
-        <v>2057</v>
+        <v>2500</v>
       </c>
       <c r="DD6" t="n">
-        <v>4022</v>
+        <v>4707</v>
       </c>
       <c r="DE6" t="n">
-        <v>4667</v>
+        <v>5030</v>
       </c>
       <c r="DF6" t="n">
-        <v>8689</v>
+        <v>9737</v>
       </c>
       <c r="DG6" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="DH6" t="n">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="DI6" t="n">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="DJ6" t="n">
-        <v>1023</v>
+        <v>1058</v>
       </c>
       <c r="DK6" t="n">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="DL6" t="n">
-        <v>48374</v>
+        <v>48094</v>
       </c>
       <c r="DM6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DN6" t="n">
         <v>0</v>
@@ -3259,80 +3259,80 @@
         </is>
       </c>
       <c r="DQ6" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="DR6" t="n">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
       <c r="DS6" t="n">
-        <v>14.33</v>
+        <v>13.27</v>
       </c>
       <c r="DT6" t="n">
-        <v>4.71</v>
+        <v>4.45</v>
       </c>
       <c r="DU6" t="n">
-        <v>6</v>
+        <v>5.55</v>
       </c>
       <c r="DV6" t="n">
-        <v>11.76</v>
+        <v>12.23</v>
       </c>
       <c r="DW6" t="n">
-        <v>2.14</v>
+        <v>1.68</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="DY6" t="n">
-        <v>2.67</v>
+        <v>2.18</v>
       </c>
       <c r="DZ6" t="n">
-        <v>1.62</v>
+        <v>0.95</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.48</v>
+        <v>0.36</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="EC6" t="n">
-        <v>407.19</v>
+        <v>387.14</v>
       </c>
       <c r="ED6" t="n">
-        <v>14.62</v>
+        <v>15.82</v>
       </c>
       <c r="EE6" t="n">
-        <v>8.619999999999999</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="EF6" t="n">
-        <v>19.14</v>
+        <v>21.36</v>
       </c>
       <c r="EG6" t="n">
-        <v>2.43</v>
+        <v>2.82</v>
       </c>
       <c r="EH6" t="n">
-        <v>45.95</v>
+        <v>44.36</v>
       </c>
       <c r="EI6" t="n">
-        <v>33.67</v>
+        <v>33.41</v>
       </c>
       <c r="EJ6" t="n">
-        <v>12.29</v>
+        <v>10.95</v>
       </c>
       <c r="EK6" t="n">
-        <v>121.62</v>
+        <v>123.14</v>
       </c>
       <c r="EL6" t="n">
-        <v>6.71</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Stade Rennais</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1658</v>
+        <v>1643</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3343,85 +3343,85 @@
         <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F7" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" t="n">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="n">
+        <v>31</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>208</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>93</v>
+      </c>
+      <c r="R7" t="n">
         <v>4</v>
       </c>
-      <c r="N7" t="n">
-        <v>29</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>171</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>108</v>
-      </c>
-      <c r="R7" t="n">
-        <v>7</v>
-      </c>
       <c r="S7" t="n">
+        <v>15</v>
+      </c>
+      <c r="T7" t="n">
+        <v>15</v>
+      </c>
+      <c r="U7" t="n">
+        <v>56</v>
+      </c>
+      <c r="V7" t="n">
+        <v>37</v>
+      </c>
+      <c r="W7" t="n">
+        <v>34</v>
+      </c>
+      <c r="X7" t="n">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>109</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>93</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>141</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>312</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AD7" t="n">
         <v>10</v>
       </c>
-      <c r="T7" t="n">
-        <v>13</v>
-      </c>
-      <c r="U7" t="n">
-        <v>46</v>
-      </c>
-      <c r="V7" t="n">
-        <v>38</v>
-      </c>
-      <c r="W7" t="n">
-        <v>20</v>
-      </c>
-      <c r="X7" t="n">
-        <v>94</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>99</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>86</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>137</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>308</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>117</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
       <c r="AE7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
         <v>1</v>
@@ -3430,253 +3430,253 @@
         <v>19</v>
       </c>
       <c r="AH7" t="n">
-        <v>52.047619047619</v>
+        <v>54.238095238095</v>
       </c>
       <c r="AI7" t="n">
-        <v>9748</v>
+        <v>10075</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8287</v>
+        <v>8551</v>
       </c>
       <c r="AK7" t="n">
-        <v>85.012310217481</v>
+        <v>84.87344913151399</v>
       </c>
       <c r="AL7" t="n">
-        <v>4604</v>
+        <v>4679</v>
       </c>
       <c r="AM7" t="n">
-        <v>4155</v>
+        <v>4334</v>
       </c>
       <c r="AN7" t="n">
-        <v>90.24761077324099</v>
+        <v>92.626629621714</v>
       </c>
       <c r="AO7" t="n">
-        <v>5144</v>
+        <v>5396</v>
       </c>
       <c r="AP7" t="n">
-        <v>4132</v>
+        <v>4217</v>
       </c>
       <c r="AQ7" t="n">
-        <v>80.32659409020199</v>
+        <v>78.150481838399</v>
       </c>
       <c r="AR7" t="n">
-        <v>608</v>
+        <v>658</v>
       </c>
       <c r="AS7" t="n">
-        <v>298</v>
+        <v>380</v>
       </c>
       <c r="AT7" t="n">
-        <v>49.013157894737</v>
+        <v>57.750759878419</v>
       </c>
       <c r="AU7" t="n">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="AV7" t="n">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="AW7" t="n">
-        <v>20.388349514563</v>
+        <v>25.31328320802</v>
       </c>
       <c r="AX7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>307</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>181</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>402</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>1902</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>965</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>50.736067297581</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>1412</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>707</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>50.070821529745</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>490</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>258</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>52.65306122449</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>2554</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>26</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>247</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>45</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="n">
         <v>5</v>
       </c>
-      <c r="AY7" t="n">
-        <v>332</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>171</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>56</v>
-      </c>
-      <c r="BB7" t="n">
+      <c r="BX7" t="n">
+        <v>6.8055214723926</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>1473</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>3067</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>4167</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>7234</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>46</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>31</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>25</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>523</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>85</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>68</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>336</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>322</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>148</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>8</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>11</v>
+      </c>
+      <c r="CN7" t="n">
         <v>6</v>
       </c>
-      <c r="BC7" t="n">
-        <v>11</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>4</v>
-      </c>
-      <c r="BE7" t="n">
+      <c r="CO7" t="n">
+        <v>200</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>149</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>464</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>1010</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>29</v>
+      </c>
+      <c r="CT7" t="n">
         <v>3</v>
       </c>
-      <c r="BF7" t="n">
-        <v>440</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>1839</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>941</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>51.169113648722</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>1411</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>706</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>50.035435861091</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>428</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>235</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>54.906542056075</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>2585</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>49</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>259</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>37</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>4</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>6.7808306709265</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>1600</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>3278</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>4324</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>7602</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>59</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>45</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>34</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>498</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>103</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>90</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>364</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>292</v>
-      </c>
-      <c r="CK7" t="n">
-        <v>127</v>
-      </c>
-      <c r="CL7" t="n">
-        <v>6</v>
-      </c>
-      <c r="CM7" t="n">
-        <v>12</v>
-      </c>
-      <c r="CN7" t="n">
-        <v>10</v>
-      </c>
-      <c r="CO7" t="n">
-        <v>209</v>
-      </c>
-      <c r="CP7" t="n">
-        <v>217</v>
-      </c>
-      <c r="CQ7" t="n">
-        <v>451</v>
-      </c>
-      <c r="CR7" t="n">
-        <v>995</v>
-      </c>
-      <c r="CS7" t="n">
-        <v>43</v>
-      </c>
-      <c r="CT7" t="n">
-        <v>5</v>
-      </c>
       <c r="CU7" t="n">
-        <v>285</v>
+        <v>212</v>
       </c>
       <c r="CV7" t="n">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="CW7" t="n">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="CX7" t="n">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="CY7" t="n">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="CZ7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="DA7" t="n">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="DB7" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="DC7" t="n">
-        <v>2301</v>
+        <v>2057</v>
       </c>
       <c r="DD7" t="n">
-        <v>4360</v>
+        <v>4022</v>
       </c>
       <c r="DE7" t="n">
-        <v>4746</v>
+        <v>4667</v>
       </c>
       <c r="DF7" t="n">
-        <v>9106</v>
+        <v>8689</v>
       </c>
       <c r="DG7" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="DH7" t="n">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="DI7" t="n">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="DJ7" t="n">
-        <v>1011</v>
+        <v>1023</v>
       </c>
       <c r="DK7" t="n">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="DL7" t="n">
-        <v>48094</v>
+        <v>48374</v>
       </c>
       <c r="DM7" t="n">
         <v>21</v>
@@ -3695,80 +3695,80 @@
         </is>
       </c>
       <c r="DQ7" t="n">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="DR7" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>6</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="DZ7" t="n">
         <v>1.62</v>
       </c>
-      <c r="DS7" t="n">
-        <v>13.29</v>
-      </c>
-      <c r="DT7" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="DU7" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="DV7" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="DW7" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="DX7" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="DY7" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="DZ7" t="n">
-        <v>0.95</v>
-      </c>
       <c r="EA7" t="n">
-        <v>0.33</v>
+        <v>0.48</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="EC7" t="n">
-        <v>394.62</v>
+        <v>407.19</v>
       </c>
       <c r="ED7" t="n">
-        <v>15.81</v>
+        <v>14.62</v>
       </c>
       <c r="EE7" t="n">
-        <v>8.140000000000001</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="EF7" t="n">
-        <v>20.95</v>
+        <v>19.14</v>
       </c>
       <c r="EG7" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="EH7" t="n">
-        <v>44.81</v>
+        <v>45.95</v>
       </c>
       <c r="EI7" t="n">
-        <v>33.62</v>
+        <v>33.67</v>
       </c>
       <c r="EJ7" t="n">
-        <v>11.19</v>
+        <v>12.29</v>
       </c>
       <c r="EK7" t="n">
-        <v>123.1</v>
+        <v>121.62</v>
       </c>
       <c r="EL7" t="n">
-        <v>6.52</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RC Strasbourg</t>
+          <t>AS Monaco</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3776,346 +3776,346 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" t="n">
+        <v>35</v>
+      </c>
+      <c r="F8" t="n">
         <v>34</v>
-      </c>
-      <c r="F8" t="n">
-        <v>27</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" t="n">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N8" t="n">
         <v>32</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="Q8" t="n">
         <v>69</v>
       </c>
       <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>12</v>
+      </c>
+      <c r="T8" t="n">
+        <v>16</v>
+      </c>
+      <c r="U8" t="n">
+        <v>67</v>
+      </c>
+      <c r="V8" t="n">
+        <v>49</v>
+      </c>
+      <c r="W8" t="n">
+        <v>37</v>
+      </c>
+      <c r="X8" t="n">
+        <v>92</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>107</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>73</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>306</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>109</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>53.136363636364</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>10304</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>8622</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>83.676242236025</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>4622</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>4185</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>90.545218520121</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>5682</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>4437</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>78.08870116156299</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>729</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>366</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>50.205761316872</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>388</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>21.907216494845</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>385</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>245</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>58</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>458</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>2096</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>1027</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>48.998091603053</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>1551</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>744</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>47.969052224371</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>545</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>283</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>51.926605504587</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>2857</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>52</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>298</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>52</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW8" t="n">
         <v>6</v>
       </c>
-      <c r="S8" t="n">
-        <v>6</v>
-      </c>
-      <c r="T8" t="n">
-        <v>21</v>
-      </c>
-      <c r="U8" t="n">
-        <v>61</v>
-      </c>
-      <c r="V8" t="n">
-        <v>50</v>
-      </c>
-      <c r="W8" t="n">
-        <v>34</v>
-      </c>
-      <c r="X8" t="n">
-        <v>91</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>82</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>61</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>181</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>390</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>51.47619047619</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>10660</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>9366</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>87.861163227017</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>6207</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>5865</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>94.490091831803</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>4453</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>3501</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>78.621154278015</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>456</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>240</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>52.631578947368</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>341</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>93</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>27.272727272727</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>345</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>157</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>59</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>18</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>4</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>412</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>1945</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>998</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>51.311053984576</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>1545</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>786</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>50.873786407767</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>400</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>212</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>53</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>2376</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>36</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>243</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>41</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>5</v>
-      </c>
       <c r="BX8" t="n">
-        <v>6.8136075949367</v>
+        <v>6.7831360946746</v>
       </c>
       <c r="BY8" t="n">
-        <v>1616</v>
+        <v>1670</v>
       </c>
       <c r="BZ8" t="n">
-        <v>3510</v>
+        <v>3357</v>
       </c>
       <c r="CA8" t="n">
-        <v>4971</v>
+        <v>4044</v>
       </c>
       <c r="CB8" t="n">
-        <v>8481</v>
+        <v>7401</v>
       </c>
       <c r="CC8" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="CD8" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="CE8" t="n">
         <v>23</v>
       </c>
       <c r="CF8" t="n">
-        <v>426</v>
+        <v>517</v>
       </c>
       <c r="CG8" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="CH8" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="CI8" t="n">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="CJ8" t="n">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="CK8" t="n">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="CL8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CM8" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="CN8" t="n">
+        <v>7</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>221</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>225</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>494</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>1101</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>22</v>
+      </c>
+      <c r="CT8" t="n">
         <v>4</v>
       </c>
-      <c r="CO8" t="n">
-        <v>178</v>
-      </c>
-      <c r="CP8" t="n">
-        <v>180</v>
-      </c>
-      <c r="CQ8" t="n">
-        <v>510</v>
-      </c>
-      <c r="CR8" t="n">
-        <v>1013</v>
-      </c>
-      <c r="CS8" t="n">
-        <v>30</v>
-      </c>
-      <c r="CT8" t="n">
-        <v>3</v>
-      </c>
       <c r="CU8" t="n">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="CV8" t="n">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="CW8" t="n">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="CX8" t="n">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="CY8" t="n">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="CZ8" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="DA8" t="n">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="DB8" t="n">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="DC8" t="n">
-        <v>2182</v>
+        <v>2351</v>
       </c>
       <c r="DD8" t="n">
-        <v>4449</v>
+        <v>4497</v>
       </c>
       <c r="DE8" t="n">
-        <v>5444</v>
+        <v>4630</v>
       </c>
       <c r="DF8" t="n">
-        <v>9893</v>
+        <v>9127</v>
       </c>
       <c r="DG8" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="DH8" t="n">
-        <v>332</v>
+        <v>444</v>
       </c>
       <c r="DI8" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="DJ8" t="n">
-        <v>1021</v>
+        <v>1136</v>
       </c>
       <c r="DK8" t="n">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="DL8" t="n">
-        <v>48422</v>
+        <v>48291</v>
       </c>
       <c r="DM8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DN8" t="n">
         <v>0</v>
@@ -4131,80 +4131,80 @@
         </is>
       </c>
       <c r="DQ8" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="DR8" t="n">
-        <v>1.29</v>
+        <v>1.55</v>
       </c>
       <c r="DS8" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>391.91</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="EE8" t="n">
         <v>11.14</v>
       </c>
-      <c r="DT8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="DU8" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="DV8" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="DW8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="DX8" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="DY8" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="DZ8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="EA8" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="EB8" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="EC8" t="n">
-        <v>446</v>
-      </c>
-      <c r="ED8" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="EE8" t="n">
-        <v>7.48</v>
-      </c>
       <c r="EF8" t="n">
-        <v>19.62</v>
+        <v>20.82</v>
       </c>
       <c r="EG8" t="n">
-        <v>2.81</v>
+        <v>2.64</v>
       </c>
       <c r="EH8" t="n">
-        <v>47.52</v>
+        <v>46.68</v>
       </c>
       <c r="EI8" t="n">
-        <v>37.43</v>
+        <v>33.82</v>
       </c>
       <c r="EJ8" t="n">
-        <v>10.1</v>
+        <v>12.86</v>
       </c>
       <c r="EK8" t="n">
-        <v>113.14</v>
+        <v>129.86</v>
       </c>
       <c r="EL8" t="n">
-        <v>8.619999999999999</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>RC Strasbourg</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1681</v>
+        <v>1659</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -4215,340 +4215,340 @@
         <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F9" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I9" t="n">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
         <v>4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>7</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>12</v>
+      </c>
+      <c r="N9" t="n">
+        <v>32</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>165</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>69</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T9" t="n">
+        <v>21</v>
+      </c>
+      <c r="U9" t="n">
+        <v>61</v>
+      </c>
+      <c r="V9" t="n">
+        <v>50</v>
+      </c>
+      <c r="W9" t="n">
+        <v>34</v>
+      </c>
+      <c r="X9" t="n">
+        <v>91</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>82</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>181</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>390</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD9" t="n">
         <v>3</v>
       </c>
-      <c r="N9" t="n">
-        <v>26</v>
-      </c>
-      <c r="O9" t="n">
-        <v>4</v>
-      </c>
-      <c r="P9" t="n">
-        <v>182</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>75</v>
-      </c>
-      <c r="R9" t="n">
-        <v>4</v>
-      </c>
-      <c r="S9" t="n">
+      <c r="AE9" t="n">
         <v>11</v>
       </c>
-      <c r="T9" t="n">
-        <v>15</v>
-      </c>
-      <c r="U9" t="n">
-        <v>33</v>
-      </c>
-      <c r="V9" t="n">
-        <v>17</v>
-      </c>
-      <c r="W9" t="n">
-        <v>15</v>
-      </c>
-      <c r="X9" t="n">
-        <v>88</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>104</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>171</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>364</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>94</v>
-      </c>
-      <c r="AD9" t="n">
+      <c r="AF9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>51.47619047619</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>10660</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9366</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>87.861163227017</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>6207</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>5865</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>94.490091831803</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>4453</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>3501</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>78.621154278015</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>456</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>52.631578947368</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>341</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>93</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>27.272727272727</v>
+      </c>
+      <c r="AX9" t="n">
         <v>7</v>
       </c>
-      <c r="AE9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>41.571428571429</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>7499</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>6061</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>80.82410988131799</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>3662</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>3329</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>90.906608410705</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>3837</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>2732</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>71.201459473547</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>606</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>304</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>50.16501650165</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>334</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>83</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>24.850299401198</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>8</v>
-      </c>
       <c r="AY9" t="n">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="AZ9" t="n">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="BA9" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="BB9" t="n">
         <v>3</v>
       </c>
       <c r="BC9" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BD9" t="n">
         <v>4</v>
       </c>
       <c r="BE9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF9" t="n">
-        <v>543</v>
+        <v>412</v>
       </c>
       <c r="BG9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BI9" t="n">
-        <v>2157</v>
+        <v>1945</v>
       </c>
       <c r="BJ9" t="n">
-        <v>1079</v>
+        <v>998</v>
       </c>
       <c r="BK9" t="n">
-        <v>50.023180343069</v>
+        <v>51.311053984576</v>
       </c>
       <c r="BL9" t="n">
-        <v>1518</v>
+        <v>1545</v>
       </c>
       <c r="BM9" t="n">
-        <v>738</v>
+        <v>786</v>
       </c>
       <c r="BN9" t="n">
-        <v>48.616600790514</v>
+        <v>50.873786407767</v>
       </c>
       <c r="BO9" t="n">
-        <v>639</v>
+        <v>400</v>
       </c>
       <c r="BP9" t="n">
-        <v>341</v>
+        <v>212</v>
       </c>
       <c r="BQ9" t="n">
-        <v>53.364632237872</v>
+        <v>53</v>
       </c>
       <c r="BR9" t="n">
-        <v>2526</v>
+        <v>2376</v>
       </c>
       <c r="BS9" t="n">
+        <v>36</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>243</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>5</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>6.8136075949367</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>1616</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>3510</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>4971</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>8481</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>42</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>27</v>
+      </c>
+      <c r="CE9" t="n">
         <v>23</v>
       </c>
-      <c r="BT9" t="n">
-        <v>302</v>
-      </c>
-      <c r="BU9" t="n">
-        <v>47</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>2</v>
-      </c>
-      <c r="BX9" t="n">
-        <v>6.8157232704402</v>
-      </c>
-      <c r="BY9" t="n">
-        <v>1647</v>
-      </c>
-      <c r="BZ9" t="n">
-        <v>3845</v>
-      </c>
-      <c r="CA9" t="n">
-        <v>5563</v>
-      </c>
-      <c r="CB9" t="n">
-        <v>9408</v>
-      </c>
-      <c r="CC9" t="n">
-        <v>43</v>
-      </c>
-      <c r="CD9" t="n">
-        <v>30</v>
-      </c>
-      <c r="CE9" t="n">
-        <v>26</v>
-      </c>
       <c r="CF9" t="n">
-        <v>490</v>
+        <v>426</v>
       </c>
       <c r="CG9" t="n">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="CH9" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="CI9" t="n">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="CJ9" t="n">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="CK9" t="n">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="CL9" t="n">
         <v>5</v>
       </c>
       <c r="CM9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="CN9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CO9" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="CP9" t="n">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="CQ9" t="n">
-        <v>472</v>
+        <v>510</v>
       </c>
       <c r="CR9" t="n">
-        <v>1052</v>
+        <v>1013</v>
       </c>
       <c r="CS9" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="CT9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CU9" t="n">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="CV9" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="CW9" t="n">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="CX9" t="n">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="CY9" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="CZ9" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="DA9" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="DB9" t="n">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="DC9" t="n">
-        <v>2268</v>
+        <v>2182</v>
       </c>
       <c r="DD9" t="n">
-        <v>4944</v>
+        <v>4449</v>
       </c>
       <c r="DE9" t="n">
-        <v>5989</v>
+        <v>5444</v>
       </c>
       <c r="DF9" t="n">
-        <v>10933</v>
+        <v>9893</v>
       </c>
       <c r="DG9" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="DH9" t="n">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="DI9" t="n">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="DJ9" t="n">
-        <v>973</v>
+        <v>1021</v>
       </c>
       <c r="DK9" t="n">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="DL9" t="n">
-        <v>48310</v>
+        <v>48422</v>
       </c>
       <c r="DM9" t="n">
         <v>21</v>
@@ -4567,80 +4567,80 @@
         </is>
       </c>
       <c r="DQ9" t="n">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="DR9" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="DS9" t="n">
-        <v>12.24</v>
+        <v>11.14</v>
       </c>
       <c r="DT9" t="n">
-        <v>4.19</v>
+        <v>4.33</v>
       </c>
       <c r="DU9" t="n">
-        <v>4.48</v>
+        <v>3.81</v>
       </c>
       <c r="DV9" t="n">
-        <v>14.38</v>
+        <v>11.57</v>
       </c>
       <c r="DW9" t="n">
-        <v>2.24</v>
+        <v>1.95</v>
       </c>
       <c r="DX9" t="n">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="DY9" t="n">
-        <v>1.57</v>
+        <v>2.9</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.71</v>
+        <v>1.62</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="EB9" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="EC9" t="n">
-        <v>288.62</v>
+        <v>446</v>
       </c>
       <c r="ED9" t="n">
-        <v>15.86</v>
+        <v>16.43</v>
       </c>
       <c r="EE9" t="n">
-        <v>9.140000000000001</v>
+        <v>7.48</v>
       </c>
       <c r="EF9" t="n">
-        <v>25.86</v>
+        <v>19.62</v>
       </c>
       <c r="EG9" t="n">
-        <v>2.24</v>
+        <v>2.81</v>
       </c>
       <c r="EH9" t="n">
-        <v>51.38</v>
+        <v>47.52</v>
       </c>
       <c r="EI9" t="n">
-        <v>35.14</v>
+        <v>37.43</v>
       </c>
       <c r="EJ9" t="n">
-        <v>16.24</v>
+        <v>10.1</v>
       </c>
       <c r="EK9" t="n">
-        <v>120.29</v>
+        <v>113.14</v>
       </c>
       <c r="EL9" t="n">
-        <v>8.140000000000001</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -4651,340 +4651,340 @@
         <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I10" t="n">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>26</v>
+      </c>
+      <c r="O10" t="n">
         <v>4</v>
       </c>
-      <c r="N10" t="n">
-        <v>20</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
+        <v>182</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>75</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>11</v>
+      </c>
+      <c r="T10" t="n">
+        <v>15</v>
+      </c>
+      <c r="U10" t="n">
+        <v>33</v>
+      </c>
+      <c r="V10" t="n">
+        <v>17</v>
+      </c>
+      <c r="W10" t="n">
+        <v>15</v>
+      </c>
+      <c r="X10" t="n">
+        <v>88</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>104</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>171</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>364</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>94</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
-        <v>121</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>79</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2</v>
-      </c>
-      <c r="S10" t="n">
-        <v>7</v>
-      </c>
-      <c r="T10" t="n">
-        <v>12</v>
-      </c>
-      <c r="U10" t="n">
-        <v>37</v>
-      </c>
-      <c r="V10" t="n">
-        <v>26</v>
-      </c>
-      <c r="W10" t="n">
-        <v>22</v>
-      </c>
-      <c r="X10" t="n">
-        <v>75</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>122</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>326</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>78</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>4</v>
-      </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AH10" t="n">
-        <v>43</v>
+        <v>41.571428571429</v>
       </c>
       <c r="AI10" t="n">
-        <v>8681</v>
+        <v>7499</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7207</v>
+        <v>6061</v>
       </c>
       <c r="AK10" t="n">
-        <v>83.020389356065</v>
+        <v>80.82410988131799</v>
       </c>
       <c r="AL10" t="n">
-        <v>5002</v>
+        <v>3662</v>
       </c>
       <c r="AM10" t="n">
-        <v>4492</v>
+        <v>3329</v>
       </c>
       <c r="AN10" t="n">
-        <v>89.80407836865299</v>
+        <v>90.906608410705</v>
       </c>
       <c r="AO10" t="n">
-        <v>3679</v>
+        <v>3837</v>
       </c>
       <c r="AP10" t="n">
-        <v>2715</v>
+        <v>2732</v>
       </c>
       <c r="AQ10" t="n">
-        <v>73.797227507475</v>
+        <v>71.201459473547</v>
       </c>
       <c r="AR10" t="n">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="AS10" t="n">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="AT10" t="n">
-        <v>48.067226890756</v>
+        <v>50.16501650165</v>
       </c>
       <c r="AU10" t="n">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="AV10" t="n">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="AW10" t="n">
-        <v>19.736842105263</v>
+        <v>24.850299401198</v>
       </c>
       <c r="AX10" t="n">
         <v>8</v>
       </c>
       <c r="AY10" t="n">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="AZ10" t="n">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="BA10" t="n">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="BB10" t="n">
         <v>3</v>
       </c>
       <c r="BC10" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BD10" t="n">
         <v>4</v>
       </c>
       <c r="BE10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF10" t="n">
-        <v>500</v>
+        <v>543</v>
       </c>
       <c r="BG10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BI10" t="n">
-        <v>1915</v>
+        <v>2157</v>
       </c>
       <c r="BJ10" t="n">
-        <v>960</v>
+        <v>1079</v>
       </c>
       <c r="BK10" t="n">
-        <v>50.130548302872</v>
+        <v>50.023180343069</v>
       </c>
       <c r="BL10" t="n">
-        <v>1444</v>
+        <v>1518</v>
       </c>
       <c r="BM10" t="n">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BN10" t="n">
-        <v>50.761772853186</v>
+        <v>48.616600790514</v>
       </c>
       <c r="BO10" t="n">
-        <v>471</v>
+        <v>639</v>
       </c>
       <c r="BP10" t="n">
-        <v>227</v>
+        <v>341</v>
       </c>
       <c r="BQ10" t="n">
-        <v>48.195329087049</v>
+        <v>53.364632237872</v>
       </c>
       <c r="BR10" t="n">
-        <v>2567</v>
+        <v>2526</v>
       </c>
       <c r="BS10" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="BT10" t="n">
-        <v>232</v>
+        <v>302</v>
       </c>
       <c r="BU10" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="BV10" t="n">
         <v>0</v>
       </c>
       <c r="BW10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BX10" t="n">
-        <v>6.7732087227414</v>
+        <v>6.8157232704402</v>
       </c>
       <c r="BY10" t="n">
-        <v>2285</v>
+        <v>1647</v>
       </c>
       <c r="BZ10" t="n">
-        <v>4868</v>
+        <v>3845</v>
       </c>
       <c r="CA10" t="n">
-        <v>5399</v>
+        <v>5563</v>
       </c>
       <c r="CB10" t="n">
-        <v>10267</v>
+        <v>9408</v>
       </c>
       <c r="CC10" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="CD10" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="CE10" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="CF10" t="n">
-        <v>369</v>
+        <v>490</v>
       </c>
       <c r="CG10" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="CH10" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="CI10" t="n">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="CJ10" t="n">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="CK10" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="CL10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CM10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CN10" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="CO10" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="CP10" t="n">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="CQ10" t="n">
-        <v>513</v>
+        <v>472</v>
       </c>
       <c r="CR10" t="n">
-        <v>956</v>
+        <v>1052</v>
       </c>
       <c r="CS10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CT10" t="n">
         <v>2</v>
       </c>
       <c r="CU10" t="n">
-        <v>296</v>
+        <v>241</v>
       </c>
       <c r="CV10" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="CW10" t="n">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="CX10" t="n">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="CY10" t="n">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="CZ10" t="n">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="DA10" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="DB10" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="DC10" t="n">
-        <v>3085</v>
+        <v>2268</v>
       </c>
       <c r="DD10" t="n">
-        <v>6069</v>
+        <v>4944</v>
       </c>
       <c r="DE10" t="n">
-        <v>5702</v>
+        <v>5989</v>
       </c>
       <c r="DF10" t="n">
-        <v>11771</v>
+        <v>10933</v>
       </c>
       <c r="DG10" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="DH10" t="n">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="DI10" t="n">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="DJ10" t="n">
-        <v>1077</v>
+        <v>973</v>
       </c>
       <c r="DK10" t="n">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="DL10" t="n">
-        <v>48423</v>
+        <v>48310</v>
       </c>
       <c r="DM10" t="n">
         <v>21</v>
@@ -5003,80 +5003,80 @@
         </is>
       </c>
       <c r="DQ10" t="n">
-        <v>1.05</v>
+        <v>1.48</v>
       </c>
       <c r="DR10" t="n">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="DS10" t="n">
-        <v>9.52</v>
+        <v>12.24</v>
       </c>
       <c r="DT10" t="n">
-        <v>3.57</v>
+        <v>4.19</v>
       </c>
       <c r="DU10" t="n">
-        <v>3.71</v>
+        <v>4.48</v>
       </c>
       <c r="DV10" t="n">
-        <v>11.05</v>
+        <v>14.38</v>
       </c>
       <c r="DW10" t="n">
-        <v>1.43</v>
+        <v>2.24</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="DY10" t="n">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="DZ10" t="n">
-        <v>1.05</v>
+        <v>0.71</v>
       </c>
       <c r="EA10" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="EB10" t="n">
         <v>0.19</v>
       </c>
-      <c r="EB10" t="n">
-        <v>0.1</v>
-      </c>
       <c r="EC10" t="n">
-        <v>343.19</v>
+        <v>288.62</v>
       </c>
       <c r="ED10" t="n">
-        <v>18.52</v>
+        <v>15.86</v>
       </c>
       <c r="EE10" t="n">
-        <v>9.710000000000001</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="EF10" t="n">
-        <v>23.81</v>
+        <v>25.86</v>
       </c>
       <c r="EG10" t="n">
-        <v>3.9</v>
+        <v>2.24</v>
       </c>
       <c r="EH10" t="n">
-        <v>45.71</v>
+        <v>51.38</v>
       </c>
       <c r="EI10" t="n">
-        <v>34.9</v>
+        <v>35.14</v>
       </c>
       <c r="EJ10" t="n">
-        <v>10.81</v>
+        <v>16.24</v>
       </c>
       <c r="EK10" t="n">
-        <v>122.24</v>
+        <v>120.29</v>
       </c>
       <c r="EL10" t="n">
-        <v>5.81</v>
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AS Monaco</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1653</v>
+        <v>1684</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -5087,340 +5087,340 @@
         <v>21</v>
       </c>
       <c r="E11" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F11" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I11" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="O11" t="n">
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="Q11" t="n">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="R11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U11" t="n">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="V11" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="W11" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="X11" t="n">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="n">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="Z11" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AA11" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AB11" t="n">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="AC11" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AF11" t="n">
         <v>4</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AH11" t="n">
-        <v>53.428571428571</v>
+        <v>43</v>
       </c>
       <c r="AI11" t="n">
-        <v>9897</v>
+        <v>8681</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8296</v>
+        <v>7207</v>
       </c>
       <c r="AK11" t="n">
-        <v>83.82338082247099</v>
+        <v>83.020389356065</v>
       </c>
       <c r="AL11" t="n">
-        <v>4449</v>
+        <v>5002</v>
       </c>
       <c r="AM11" t="n">
-        <v>4035</v>
+        <v>4492</v>
       </c>
       <c r="AN11" t="n">
-        <v>90.694538098449</v>
+        <v>89.80407836865299</v>
       </c>
       <c r="AO11" t="n">
-        <v>5448</v>
+        <v>3679</v>
       </c>
       <c r="AP11" t="n">
-        <v>4261</v>
+        <v>2715</v>
       </c>
       <c r="AQ11" t="n">
-        <v>78.212187958884</v>
+        <v>73.797227507475</v>
       </c>
       <c r="AR11" t="n">
-        <v>698</v>
+        <v>595</v>
       </c>
       <c r="AS11" t="n">
-        <v>354</v>
+        <v>286</v>
       </c>
       <c r="AT11" t="n">
-        <v>50.716332378223</v>
+        <v>48.067226890756</v>
       </c>
       <c r="AU11" t="n">
-        <v>373</v>
+        <v>304</v>
       </c>
       <c r="AV11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>19.736842105263</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>389</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>204</v>
+      </c>
+      <c r="BA11" t="n">
         <v>82</v>
       </c>
-      <c r="AW11" t="n">
-        <v>21.983914209115</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>363</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>234</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>57</v>
-      </c>
       <c r="BB11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD11" t="n">
         <v>4</v>
       </c>
-      <c r="BC11" t="n">
+      <c r="BE11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>500</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>1915</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>960</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>50.130548302872</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>1444</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>733</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>50.761772853186</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>471</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>227</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>48.195329087049</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>2567</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>35</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>232</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>30</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>6.7732087227414</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>2285</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>4868</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>5399</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>10267</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>51</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>39</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>34</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>369</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>109</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>100</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>405</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>341</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>138</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>3</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>16</v>
+      </c>
+      <c r="CN11" t="n">
         <v>13</v>
       </c>
-      <c r="BD11" t="n">
-        <v>5</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>4</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>431</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>1990</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>979</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>49.195979899497</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>1474</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>708</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>48.032564450475</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>516</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>271</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>52.519379844961</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>2720</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>50</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>283</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>48</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>5</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>6.7791925465839</v>
-      </c>
-      <c r="BY11" t="n">
-        <v>1570</v>
-      </c>
-      <c r="BZ11" t="n">
-        <v>3147</v>
-      </c>
-      <c r="CA11" t="n">
-        <v>3869</v>
-      </c>
-      <c r="CB11" t="n">
-        <v>7016</v>
-      </c>
-      <c r="CC11" t="n">
-        <v>41</v>
-      </c>
-      <c r="CD11" t="n">
-        <v>28</v>
-      </c>
-      <c r="CE11" t="n">
-        <v>21</v>
-      </c>
-      <c r="CF11" t="n">
-        <v>495</v>
-      </c>
-      <c r="CG11" t="n">
-        <v>91</v>
-      </c>
-      <c r="CH11" t="n">
+      <c r="CO11" t="n">
+        <v>188</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>214</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>513</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>956</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>24</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>2</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>296</v>
+      </c>
+      <c r="CV11" t="n">
         <v>64</v>
       </c>
-      <c r="CI11" t="n">
-        <v>313</v>
-      </c>
-      <c r="CJ11" t="n">
-        <v>346</v>
-      </c>
-      <c r="CK11" t="n">
-        <v>169</v>
-      </c>
-      <c r="CL11" t="n">
-        <v>4</v>
-      </c>
-      <c r="CM11" t="n">
-        <v>15</v>
-      </c>
-      <c r="CN11" t="n">
-        <v>7</v>
-      </c>
-      <c r="CO11" t="n">
-        <v>214</v>
-      </c>
-      <c r="CP11" t="n">
-        <v>215</v>
-      </c>
-      <c r="CQ11" t="n">
-        <v>479</v>
-      </c>
-      <c r="CR11" t="n">
-        <v>1066</v>
-      </c>
-      <c r="CS11" t="n">
-        <v>20</v>
-      </c>
-      <c r="CT11" t="n">
-        <v>4</v>
-      </c>
-      <c r="CU11" t="n">
-        <v>276</v>
-      </c>
-      <c r="CV11" t="n">
-        <v>78</v>
-      </c>
       <c r="CW11" t="n">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="CX11" t="n">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="CY11" t="n">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="CZ11" t="n">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="DA11" t="n">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="DB11" t="n">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="DC11" t="n">
-        <v>2216</v>
+        <v>3085</v>
       </c>
       <c r="DD11" t="n">
-        <v>4233</v>
+        <v>6069</v>
       </c>
       <c r="DE11" t="n">
-        <v>4432</v>
+        <v>5702</v>
       </c>
       <c r="DF11" t="n">
-        <v>8665</v>
+        <v>11771</v>
       </c>
       <c r="DG11" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="DH11" t="n">
-        <v>423</v>
+        <v>344</v>
       </c>
       <c r="DI11" t="n">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="DJ11" t="n">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="DK11" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="DL11" t="n">
-        <v>48291</v>
+        <v>48423</v>
       </c>
       <c r="DM11" t="n">
         <v>21</v>
@@ -5439,70 +5439,70 @@
         </is>
       </c>
       <c r="DQ11" t="n">
-        <v>1.52</v>
+        <v>1.05</v>
       </c>
       <c r="DR11" t="n">
-        <v>1.57</v>
+        <v>1.19</v>
       </c>
       <c r="DS11" t="n">
-        <v>12.38</v>
+        <v>9.52</v>
       </c>
       <c r="DT11" t="n">
-        <v>4.1</v>
+        <v>3.57</v>
       </c>
       <c r="DU11" t="n">
-        <v>4.76</v>
+        <v>3.71</v>
       </c>
       <c r="DV11" t="n">
-        <v>13.48</v>
+        <v>11.05</v>
       </c>
       <c r="DW11" t="n">
-        <v>2.29</v>
+        <v>1.43</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.24</v>
+        <v>0.05</v>
       </c>
       <c r="DY11" t="n">
-        <v>3</v>
+        <v>1.76</v>
       </c>
       <c r="DZ11" t="n">
-        <v>1.67</v>
+        <v>1.05</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="EC11" t="n">
-        <v>395.05</v>
+        <v>343.19</v>
       </c>
       <c r="ED11" t="n">
-        <v>17.29</v>
+        <v>18.52</v>
       </c>
       <c r="EE11" t="n">
-        <v>11.14</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="EF11" t="n">
-        <v>20.52</v>
+        <v>23.81</v>
       </c>
       <c r="EG11" t="n">
-        <v>2.71</v>
+        <v>3.9</v>
       </c>
       <c r="EH11" t="n">
-        <v>46.62</v>
+        <v>45.71</v>
       </c>
       <c r="EI11" t="n">
-        <v>33.71</v>
+        <v>34.9</v>
       </c>
       <c r="EJ11" t="n">
-        <v>12.9</v>
+        <v>10.81</v>
       </c>
       <c r="EK11" t="n">
-        <v>129.52</v>
+        <v>122.24</v>
       </c>
       <c r="EL11" t="n">
-        <v>5.9</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="12">
@@ -8136,22 +8136,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18" t="n">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -8166,130 +8166,130 @@
         <v>9</v>
       </c>
       <c r="N18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O18" t="n">
         <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="Q18" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="R18" t="n">
         <v>4</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
         <v>15</v>
       </c>
       <c r="U18" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V18" t="n">
+        <v>27</v>
+      </c>
+      <c r="W18" t="n">
         <v>25</v>
       </c>
-      <c r="W18" t="n">
-        <v>23</v>
-      </c>
       <c r="X18" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y18" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Z18" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="AA18" t="n">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="AB18" t="n">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="AC18" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AD18" t="n">
         <v>12</v>
       </c>
       <c r="AE18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF18" t="n">
         <v>3</v>
       </c>
       <c r="AG18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH18" t="n">
-        <v>43.952380952381</v>
+        <v>44.363636363636</v>
       </c>
       <c r="AI18" t="n">
-        <v>7865</v>
+        <v>8327</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6325</v>
+        <v>6710</v>
       </c>
       <c r="AK18" t="n">
-        <v>80.41958041958</v>
+        <v>80.581241743725</v>
       </c>
       <c r="AL18" t="n">
-        <v>4346</v>
+        <v>4544</v>
       </c>
       <c r="AM18" t="n">
-        <v>3905</v>
+        <v>4080</v>
       </c>
       <c r="AN18" t="n">
-        <v>89.852738150023</v>
+        <v>89.78873239436599</v>
       </c>
       <c r="AO18" t="n">
-        <v>3519</v>
+        <v>3783</v>
       </c>
       <c r="AP18" t="n">
-        <v>2420</v>
+        <v>2630</v>
       </c>
       <c r="AQ18" t="n">
-        <v>68.769536800227</v>
+        <v>69.52154374834799</v>
       </c>
       <c r="AR18" t="n">
-        <v>754</v>
+        <v>782</v>
       </c>
       <c r="AS18" t="n">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="AT18" t="n">
-        <v>44.562334217507</v>
+        <v>44.501278772379</v>
       </c>
       <c r="AU18" t="n">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="AV18" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AW18" t="n">
-        <v>22.006472491909</v>
+        <v>22.356495468278</v>
       </c>
       <c r="AX18" t="n">
         <v>3</v>
       </c>
       <c r="AY18" t="n">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="AZ18" t="n">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="BA18" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="BB18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD18" t="n">
         <v>3</v>
@@ -8298,52 +8298,52 @@
         <v>3</v>
       </c>
       <c r="BF18" t="n">
-        <v>562</v>
+        <v>584</v>
       </c>
       <c r="BG18" t="n">
         <v>1</v>
       </c>
       <c r="BH18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI18" t="n">
-        <v>2027</v>
+        <v>2133</v>
       </c>
       <c r="BJ18" t="n">
-        <v>1023</v>
+        <v>1081</v>
       </c>
       <c r="BK18" t="n">
-        <v>50.468672915639</v>
+        <v>50.679793717768</v>
       </c>
       <c r="BL18" t="n">
-        <v>1486</v>
+        <v>1563</v>
       </c>
       <c r="BM18" t="n">
-        <v>744</v>
+        <v>785</v>
       </c>
       <c r="BN18" t="n">
-        <v>50.067294751009</v>
+        <v>50.22392834293</v>
       </c>
       <c r="BO18" t="n">
-        <v>541</v>
+        <v>570</v>
       </c>
       <c r="BP18" t="n">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="BQ18" t="n">
-        <v>51.571164510166</v>
+        <v>51.929824561404</v>
       </c>
       <c r="BR18" t="n">
-        <v>2605</v>
+        <v>2751</v>
       </c>
       <c r="BS18" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BT18" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="BU18" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BV18" t="n">
         <v>0</v>
@@ -8352,130 +8352,130 @@
         <v>1</v>
       </c>
       <c r="BX18" t="n">
-        <v>6.6978395061728</v>
+        <v>6.695</v>
       </c>
       <c r="BY18" t="n">
-        <v>2059</v>
+        <v>2150</v>
       </c>
       <c r="BZ18" t="n">
-        <v>4241</v>
+        <v>4417</v>
       </c>
       <c r="CA18" t="n">
-        <v>4332</v>
+        <v>4482</v>
       </c>
       <c r="CB18" t="n">
-        <v>8573</v>
+        <v>8899</v>
       </c>
       <c r="CC18" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="CD18" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="CE18" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="CF18" t="n">
-        <v>488</v>
+        <v>515</v>
       </c>
       <c r="CG18" t="n">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="CH18" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="CI18" t="n">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="CJ18" t="n">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="CK18" t="n">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="CL18" t="n">
         <v>3</v>
       </c>
       <c r="CM18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CN18" t="n">
         <v>7</v>
       </c>
       <c r="CO18" t="n">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="CP18" t="n">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="CQ18" t="n">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="CR18" t="n">
-        <v>978</v>
+        <v>1028</v>
       </c>
       <c r="CS18" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="CT18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CU18" t="n">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="CV18" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="CW18" t="n">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="CX18" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="CY18" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="CZ18" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="DA18" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="DB18" t="n">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="DC18" t="n">
-        <v>2818</v>
+        <v>2942</v>
       </c>
       <c r="DD18" t="n">
-        <v>5354</v>
+        <v>5588</v>
       </c>
       <c r="DE18" t="n">
-        <v>4656</v>
+        <v>4829</v>
       </c>
       <c r="DF18" t="n">
-        <v>10010</v>
+        <v>10417</v>
       </c>
       <c r="DG18" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="DH18" t="n">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="DI18" t="n">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="DJ18" t="n">
-        <v>950</v>
+        <v>1004</v>
       </c>
       <c r="DK18" t="n">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="DL18" t="n">
         <v>48481</v>
       </c>
       <c r="DM18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DN18" t="n">
         <v>0</v>
@@ -8491,22 +8491,22 @@
         </is>
       </c>
       <c r="DQ18" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="DR18" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="DS18" t="n">
-        <v>10.43</v>
+        <v>10.55</v>
       </c>
       <c r="DT18" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="DU18" t="n">
-        <v>3.19</v>
+        <v>3.18</v>
       </c>
       <c r="DV18" t="n">
-        <v>12.57</v>
+        <v>12.36</v>
       </c>
       <c r="DW18" t="n">
         <v>2.05</v>
@@ -8515,46 +8515,46 @@
         <v>0.05</v>
       </c>
       <c r="DY18" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="DZ18" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="EA18" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="EB18" t="n">
         <v>0.05</v>
       </c>
       <c r="EC18" t="n">
-        <v>301.19</v>
+        <v>305</v>
       </c>
       <c r="ED18" t="n">
-        <v>16.14</v>
+        <v>16.32</v>
       </c>
       <c r="EE18" t="n">
         <v>7.05</v>
       </c>
       <c r="EF18" t="n">
-        <v>26.76</v>
+        <v>26.55</v>
       </c>
       <c r="EG18" t="n">
-        <v>3.29</v>
+        <v>3.27</v>
       </c>
       <c r="EH18" t="n">
-        <v>48.71</v>
+        <v>49.14</v>
       </c>
       <c r="EI18" t="n">
-        <v>35.43</v>
+        <v>35.68</v>
       </c>
       <c r="EJ18" t="n">
-        <v>13.29</v>
+        <v>13.45</v>
       </c>
       <c r="EK18" t="n">
-        <v>124.05</v>
+        <v>125.05</v>
       </c>
       <c r="EL18" t="n">
-        <v>7.43</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="19">

--- a/sofascore_team_data/Ligue_1_Team_Stats.xlsx
+++ b/sofascore_team_data/Ligue_1_Team_Stats.xlsx
@@ -5405,7 +5405,7 @@
         <v>11213</v>
       </c>
       <c r="DG11" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="DH11" t="n">
         <v>372</v>
@@ -6599,7 +6599,7 @@
         <v>296</v>
       </c>
       <c r="BU14" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BV14" t="n">
         <v>0</v>
@@ -6765,7 +6765,7 @@
         <v>13.45</v>
       </c>
       <c r="DW14" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="DX14" t="n">
         <v>0.09</v>

--- a/sofascore_team_data/Ligue_1_Team_Stats.xlsx
+++ b/sofascore_team_data/Ligue_1_Team_Stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EL19"/>
+  <dimension ref="A1:DP19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1034,116 +1034,6 @@
           <t>statisticsType_statisticsType</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>goalsScored_per_90</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>goalsConceded_per_90</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>shots_per_90</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>shotsOnTarget_per_90</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>corners_per_90</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>fouls_per_90</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>yellowCards_per_90</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
-        <is>
-          <t>redCards_per_90</t>
-        </is>
-      </c>
-      <c r="DY1" s="1" t="inlineStr">
-        <is>
-          <t>bigChances_per_90</t>
-        </is>
-      </c>
-      <c r="DZ1" s="1" t="inlineStr">
-        <is>
-          <t>bigChancesMissed_per_90</t>
-        </is>
-      </c>
-      <c r="EA1" s="1" t="inlineStr">
-        <is>
-          <t>hitWoodwork_per_90</t>
-        </is>
-      </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>penaltyGoals_per_90</t>
-        </is>
-      </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>accuratePasses_per_90</t>
-        </is>
-      </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>tackles_per_90</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>interceptions_per_90</t>
-        </is>
-      </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>clearances_per_90</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
-        <is>
-          <t>saves_per_90</t>
-        </is>
-      </c>
-      <c r="EH1" s="1" t="inlineStr">
-        <is>
-          <t>duelsWon_per_90</t>
-        </is>
-      </c>
-      <c r="EI1" s="1" t="inlineStr">
-        <is>
-          <t>groundDuelsWon_per_90</t>
-        </is>
-      </c>
-      <c r="EJ1" s="1" t="inlineStr">
-        <is>
-          <t>aerialDuelsWon_per_90</t>
-        </is>
-      </c>
-      <c r="EK1" s="1" t="inlineStr">
-        <is>
-          <t>possessionLost_per_90</t>
-        </is>
-      </c>
-      <c r="EL1" s="1" t="inlineStr">
-        <is>
-          <t>successfulDribbles_per_90</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1514,72 +1404,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>13.91</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>380.41</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>51.18</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>122.68</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>7.91</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1950,72 +1774,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ3" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="DS3" t="n">
-        <v>17.68</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>659.86</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>15.32</v>
-      </c>
-      <c r="EE3" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="EF3" t="n">
-        <v>13.36</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>40.68</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>33.36</v>
-      </c>
-      <c r="EJ3" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="EK3" t="n">
-        <v>111.27</v>
-      </c>
-      <c r="EL3" t="n">
-        <v>9.449999999999999</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2386,72 +2144,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="DR4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="DS4" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="DT4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="DU4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="DV4" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="DW4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="DX4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="DY4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="DZ4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="EA4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="EB4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="EC4" t="n">
-        <v>404.36</v>
-      </c>
-      <c r="ED4" t="n">
-        <v>14.36</v>
-      </c>
-      <c r="EE4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="EF4" t="n">
-        <v>23.64</v>
-      </c>
-      <c r="EG4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="EH4" t="n">
-        <v>43.86</v>
-      </c>
-      <c r="EI4" t="n">
-        <v>32.77</v>
-      </c>
-      <c r="EJ4" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="EK4" t="n">
-        <v>113.41</v>
-      </c>
-      <c r="EL4" t="n">
-        <v>6.05</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2822,72 +2514,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ5" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="DR5" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="DS5" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="DT5" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="DU5" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="DV5" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="DW5" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="DX5" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="DY5" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="DZ5" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="EA5" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="EB5" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="EC5" t="n">
-        <v>504.45</v>
-      </c>
-      <c r="ED5" t="n">
-        <v>14.36</v>
-      </c>
-      <c r="EE5" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="EF5" t="n">
-        <v>17.32</v>
-      </c>
-      <c r="EG5" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="EH5" t="n">
-        <v>40.05</v>
-      </c>
-      <c r="EI5" t="n">
-        <v>30.82</v>
-      </c>
-      <c r="EJ5" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="EK5" t="n">
-        <v>105.59</v>
-      </c>
-      <c r="EL5" t="n">
-        <v>6.5</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3258,72 +2884,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ6" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="DR6" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="DS6" t="n">
-        <v>14.59</v>
-      </c>
-      <c r="DT6" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="DU6" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="DV6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="DW6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="DX6" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="DY6" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="DZ6" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="EA6" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="EB6" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="EC6" t="n">
-        <v>412.95</v>
-      </c>
-      <c r="ED6" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="EE6" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="EF6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="EG6" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="EH6" t="n">
-        <v>46.14</v>
-      </c>
-      <c r="EI6" t="n">
-        <v>33.73</v>
-      </c>
-      <c r="EJ6" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="EK6" t="n">
-        <v>122.68</v>
-      </c>
-      <c r="EL6" t="n">
-        <v>6.82</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3694,72 +3254,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ7" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="DR7" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="DS7" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="DT7" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="DU7" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="DV7" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="DW7" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="DX7" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="DY7" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="DZ7" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="EA7" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="EB7" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="EC7" t="n">
-        <v>387.14</v>
-      </c>
-      <c r="ED7" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="EE7" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="EF7" t="n">
-        <v>21.36</v>
-      </c>
-      <c r="EG7" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="EH7" t="n">
-        <v>44.36</v>
-      </c>
-      <c r="EI7" t="n">
-        <v>33.41</v>
-      </c>
-      <c r="EJ7" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="EK7" t="n">
-        <v>123.14</v>
-      </c>
-      <c r="EL7" t="n">
-        <v>6.5</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4130,72 +3624,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ8" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="DR8" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="DS8" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="DT8" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="DU8" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="DV8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="DW8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="DX8" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="DY8" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="DZ8" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="EA8" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="EB8" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="EC8" t="n">
-        <v>448</v>
-      </c>
-      <c r="ED8" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="EE8" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="EF8" t="n">
-        <v>19.68</v>
-      </c>
-      <c r="EG8" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="EH8" t="n">
-        <v>47.59</v>
-      </c>
-      <c r="EI8" t="n">
-        <v>37.59</v>
-      </c>
-      <c r="EJ8" t="n">
-        <v>10</v>
-      </c>
-      <c r="EK8" t="n">
-        <v>113.45</v>
-      </c>
-      <c r="EL8" t="n">
-        <v>8.82</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4566,72 +3994,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ9" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="DR9" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="DS9" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="DT9" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="DU9" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="DV9" t="n">
-        <v>13.55</v>
-      </c>
-      <c r="DW9" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="DX9" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="DY9" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="DZ9" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="EA9" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="EB9" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="EC9" t="n">
-        <v>391.91</v>
-      </c>
-      <c r="ED9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="EE9" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="EF9" t="n">
-        <v>20.82</v>
-      </c>
-      <c r="EG9" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="EH9" t="n">
-        <v>46.68</v>
-      </c>
-      <c r="EI9" t="n">
-        <v>33.82</v>
-      </c>
-      <c r="EJ9" t="n">
-        <v>12.86</v>
-      </c>
-      <c r="EK9" t="n">
-        <v>129.86</v>
-      </c>
-      <c r="EL9" t="n">
-        <v>5.91</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5002,72 +4364,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ10" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="DR10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="DS10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="DT10" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="DU10" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="DV10" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="DW10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="DX10" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="DY10" t="n">
-        <v>2</v>
-      </c>
-      <c r="DZ10" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="EA10" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="EB10" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="EC10" t="n">
-        <v>359.82</v>
-      </c>
-      <c r="ED10" t="n">
-        <v>14</v>
-      </c>
-      <c r="EE10" t="n">
-        <v>9</v>
-      </c>
-      <c r="EF10" t="n">
-        <v>24.95</v>
-      </c>
-      <c r="EG10" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="EH10" t="n">
-        <v>46.05</v>
-      </c>
-      <c r="EI10" t="n">
-        <v>34.23</v>
-      </c>
-      <c r="EJ10" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="EK10" t="n">
-        <v>110.86</v>
-      </c>
-      <c r="EL10" t="n">
-        <v>7.23</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5438,72 +4734,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ11" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="DR11" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="DS11" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="DT11" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="DU11" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="DV11" t="n">
-        <v>14.45</v>
-      </c>
-      <c r="DW11" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="DX11" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="DY11" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="DZ11" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="EA11" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="EB11" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="EC11" t="n">
-        <v>297.59</v>
-      </c>
-      <c r="ED11" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="EE11" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="EF11" t="n">
-        <v>24.91</v>
-      </c>
-      <c r="EG11" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="EH11" t="n">
-        <v>51.45</v>
-      </c>
-      <c r="EI11" t="n">
-        <v>35.32</v>
-      </c>
-      <c r="EJ11" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="EK11" t="n">
-        <v>121.14</v>
-      </c>
-      <c r="EL11" t="n">
-        <v>8.23</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5874,72 +5104,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ12" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR12" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="DS12" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="DT12" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="DU12" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="DV12" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="DW12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="DX12" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="DY12" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="DZ12" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA12" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="EB12" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="EC12" t="n">
-        <v>345.41</v>
-      </c>
-      <c r="ED12" t="n">
-        <v>18.27</v>
-      </c>
-      <c r="EE12" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="EF12" t="n">
-        <v>23.64</v>
-      </c>
-      <c r="EG12" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="EH12" t="n">
-        <v>45.36</v>
-      </c>
-      <c r="EI12" t="n">
-        <v>34.41</v>
-      </c>
-      <c r="EJ12" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="EK12" t="n">
-        <v>121.14</v>
-      </c>
-      <c r="EL12" t="n">
-        <v>5.77</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6310,72 +5474,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="DR13" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="DS13" t="n">
-        <v>11.77</v>
-      </c>
-      <c r="DT13" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="DU13" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="DV13" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="DW13" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="DX13" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="DY13" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="DZ13" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="EA13" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="EB13" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="EC13" t="n">
-        <v>294.68</v>
-      </c>
-      <c r="ED13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="EE13" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="EF13" t="n">
-        <v>24.73</v>
-      </c>
-      <c r="EG13" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="EH13" t="n">
-        <v>50.55</v>
-      </c>
-      <c r="EI13" t="n">
-        <v>34.09</v>
-      </c>
-      <c r="EJ13" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="EK13" t="n">
-        <v>129.55</v>
-      </c>
-      <c r="EL13" t="n">
-        <v>5.36</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6746,72 +5844,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ14" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="DR14" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="DS14" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="DT14" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="DU14" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="DV14" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="DW14" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="DX14" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="DY14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="DZ14" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="EA14" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="EB14" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="EC14" t="n">
-        <v>303.09</v>
-      </c>
-      <c r="ED14" t="n">
-        <v>17</v>
-      </c>
-      <c r="EE14" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="EF14" t="n">
-        <v>26.86</v>
-      </c>
-      <c r="EG14" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="EH14" t="n">
-        <v>49.82</v>
-      </c>
-      <c r="EI14" t="n">
-        <v>35.32</v>
-      </c>
-      <c r="EJ14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="EK14" t="n">
-        <v>126.14</v>
-      </c>
-      <c r="EL14" t="n">
-        <v>5.82</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7182,72 +6214,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ15" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="DR15" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="DS15" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="DT15" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="DU15" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="DV15" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="DW15" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="DX15" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="DY15" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="DZ15" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="EA15" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="EB15" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="EC15" t="n">
-        <v>358.27</v>
-      </c>
-      <c r="ED15" t="n">
-        <v>15</v>
-      </c>
-      <c r="EE15" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="EF15" t="n">
-        <v>26.64</v>
-      </c>
-      <c r="EG15" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="EH15" t="n">
-        <v>47.36</v>
-      </c>
-      <c r="EI15" t="n">
-        <v>34.45</v>
-      </c>
-      <c r="EJ15" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="EK15" t="n">
-        <v>122.05</v>
-      </c>
-      <c r="EL15" t="n">
-        <v>7.68</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7618,72 +6584,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ16" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="DR16" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="DS16" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="DT16" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="DU16" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="DV16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="DW16" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="DX16" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="DY16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="DZ16" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="EA16" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="EB16" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="EC16" t="n">
-        <v>441.41</v>
-      </c>
-      <c r="ED16" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="EE16" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="EF16" t="n">
-        <v>24.27</v>
-      </c>
-      <c r="EG16" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="EH16" t="n">
-        <v>41.64</v>
-      </c>
-      <c r="EI16" t="n">
-        <v>30.82</v>
-      </c>
-      <c r="EJ16" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="EK16" t="n">
-        <v>115.77</v>
-      </c>
-      <c r="EL16" t="n">
-        <v>5.45</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8054,72 +6954,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ17" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="DR17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="DS17" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="DT17" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="DU17" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="DV17" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="DW17" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="DX17" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="DY17" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="DZ17" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="EA17" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="EB17" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="EC17" t="n">
-        <v>309.55</v>
-      </c>
-      <c r="ED17" t="n">
-        <v>17.64</v>
-      </c>
-      <c r="EE17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="EF17" t="n">
-        <v>20.32</v>
-      </c>
-      <c r="EG17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="EH17" t="n">
-        <v>51.27</v>
-      </c>
-      <c r="EI17" t="n">
-        <v>38.64</v>
-      </c>
-      <c r="EJ17" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="EK17" t="n">
-        <v>124.82</v>
-      </c>
-      <c r="EL17" t="n">
-        <v>7.95</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8490,72 +7324,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ18" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="DR18" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="DS18" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="DT18" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="DU18" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="DV18" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="DW18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="DX18" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="DY18" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="DZ18" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="EA18" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="EB18" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="EC18" t="n">
-        <v>305</v>
-      </c>
-      <c r="ED18" t="n">
-        <v>16.32</v>
-      </c>
-      <c r="EE18" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="EF18" t="n">
-        <v>26.55</v>
-      </c>
-      <c r="EG18" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="EH18" t="n">
-        <v>49.14</v>
-      </c>
-      <c r="EI18" t="n">
-        <v>35.68</v>
-      </c>
-      <c r="EJ18" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="EK18" t="n">
-        <v>125.05</v>
-      </c>
-      <c r="EL18" t="n">
-        <v>7.45</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8925,72 +7693,6 @@
         <is>
           <t>team</t>
         </is>
-      </c>
-      <c r="DQ19" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR19" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="DS19" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="DT19" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="DU19" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="DV19" t="n">
-        <v>11</v>
-      </c>
-      <c r="DW19" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="DX19" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="DY19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="DZ19" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="EA19" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="EB19" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="EC19" t="n">
-        <v>390.73</v>
-      </c>
-      <c r="ED19" t="n">
-        <v>16.41</v>
-      </c>
-      <c r="EE19" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="EF19" t="n">
-        <v>22.36</v>
-      </c>
-      <c r="EG19" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="EH19" t="n">
-        <v>43</v>
-      </c>
-      <c r="EI19" t="n">
-        <v>33.91</v>
-      </c>
-      <c r="EJ19" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="EK19" t="n">
-        <v>112.55</v>
-      </c>
-      <c r="EL19" t="n">
-        <v>7.23</v>
       </c>
     </row>
   </sheetData>
